--- a/2020.xlsx
+++ b/2020.xlsx
@@ -189,13 +189,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -259,6 +253,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -274,13 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -291,6 +294,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,17 +324,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,9 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,16 +352,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,21 +376,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,31 +406,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,31 +460,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +520,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,85 +574,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,17 +678,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,15 +698,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +717,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -739,30 +739,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,153 +757,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -944,38 +938,38 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -987,25 +981,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,61 +1008,61 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1497,35 +1491,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="33" t="s">
@@ -1739,37 +1733,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="33" t="s">
@@ -1886,7 +1880,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="16">
@@ -2804,7 +2798,7 @@
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
-      <c r="Z15" s="30"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="16">
@@ -2814,11 +2808,11 @@
         <v>23</v>
       </c>
       <c r="C16" s="12">
-        <f>$C$8</f>
+        <f t="shared" ref="C16:C19" si="11">$C$8</f>
         <v>12</v>
       </c>
       <c r="D16" s="12">
-        <f>$D$8</f>
+        <f t="shared" ref="D16:D19" si="12">$D$8</f>
         <v>6</v>
       </c>
       <c r="E16" s="16"/>
@@ -2836,35 +2830,35 @@
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="12">
-        <f t="shared" ref="O16:O21" si="11">E16+G16+I16+K16+M16</f>
+        <f t="shared" ref="O16:O21" si="13">E16+G16+I16+K16+M16</f>
         <v>11</v>
       </c>
       <c r="P16" s="12">
-        <f t="shared" ref="P16:P21" si="12">F16+H16+J16+L16+N16</f>
+        <f t="shared" ref="P16:P21" si="14">F16+H16+J16+L16+N16</f>
         <v>6</v>
       </c>
       <c r="Q16" s="26">
-        <f t="shared" ref="Q16:Q21" si="13">O16/C16</f>
+        <f t="shared" ref="Q16:Q21" si="15">O16/C16</f>
         <v>0.916666666666667</v>
       </c>
       <c r="R16" s="26">
-        <f t="shared" ref="R16:R21" si="14">P16/D16</f>
+        <f t="shared" ref="R16:R21" si="16">P16/D16</f>
         <v>1</v>
       </c>
       <c r="S16" s="12">
-        <f t="shared" ref="S16:S21" si="15">C16-O16</f>
+        <f t="shared" ref="S16:S21" si="17">C16-O16</f>
         <v>1</v>
       </c>
       <c r="T16" s="12">
-        <f t="shared" ref="T16:T21" si="16">D16-P16</f>
+        <f t="shared" ref="T16:T21" si="18">D16-P16</f>
         <v>0</v>
       </c>
       <c r="U16" s="26">
-        <f t="shared" ref="U16:U19" si="17">S16/C16</f>
+        <f t="shared" ref="U16:U19" si="19">S16/C16</f>
         <v>0.0833333333333333</v>
       </c>
       <c r="V16" s="26">
-        <f t="shared" ref="V16:V19" si="18">T16/D16</f>
+        <f t="shared" ref="V16:V19" si="20">T16/D16</f>
         <v>0</v>
       </c>
       <c r="W16" s="16"/>
@@ -2878,18 +2872,18 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="16">
-        <f t="shared" ref="A17:A19" si="19">A16+1</f>
+        <f t="shared" ref="A17:A19" si="21">A16+1</f>
         <v>2</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="D17" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E17" s="16"/>
@@ -2907,35 +2901,35 @@
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="P17" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Q17" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.916666666666667</v>
       </c>
       <c r="R17" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S17" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="T17" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U17" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.0833333333333333</v>
       </c>
       <c r="V17" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W17" s="16"/>
@@ -2949,18 +2943,18 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="D18" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E18" s="16"/>
@@ -2978,35 +2972,35 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="P18" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Q18" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.916666666666667</v>
       </c>
       <c r="R18" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S18" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="T18" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U18" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.0833333333333333</v>
       </c>
       <c r="V18" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W18" s="16"/>
@@ -3018,18 +3012,18 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="D19" s="18">
-        <f>$D$8</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E19" s="16"/>
@@ -3047,35 +3041,35 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="P19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Q19" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.916666666666667</v>
       </c>
       <c r="R19" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S19" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="T19" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U19" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.0833333333333333</v>
       </c>
       <c r="V19" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W19" s="16"/>
@@ -3115,7 +3109,7 @@
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
-      <c r="Z20" s="31"/>
+      <c r="Z20" s="32"/>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="16">
@@ -3125,11 +3119,11 @@
         <v>29</v>
       </c>
       <c r="C21" s="16">
-        <f>$C$8</f>
+        <f t="shared" ref="C21:C25" si="22">$C$8</f>
         <v>12</v>
       </c>
       <c r="D21" s="18">
-        <f>$D$8</f>
+        <f t="shared" ref="D21:D25" si="23">$D$8</f>
         <v>6</v>
       </c>
       <c r="E21" s="16"/>
@@ -3147,35 +3141,35 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16">
-        <f t="shared" ref="O21:O25" si="20">E21+G21+I21+K21+M21</f>
+        <f t="shared" ref="O21:O25" si="24">E21+G21+I21+K21+M21</f>
         <v>12</v>
       </c>
       <c r="P21" s="16">
-        <f t="shared" ref="P21:P25" si="21">F21+H21+J21+L21+N21</f>
+        <f t="shared" ref="P21:P25" si="25">F21+H21+J21+L21+N21</f>
         <v>6</v>
       </c>
       <c r="Q21" s="27">
-        <f t="shared" ref="Q21:Q25" si="22">O21/C21</f>
+        <f t="shared" ref="Q21:Q25" si="26">O21/C21</f>
         <v>1</v>
       </c>
       <c r="R21" s="27">
-        <f t="shared" ref="R21:R25" si="23">P21/D21</f>
+        <f t="shared" ref="R21:R25" si="27">P21/D21</f>
         <v>1</v>
       </c>
       <c r="S21" s="16">
-        <f t="shared" ref="S21:S25" si="24">C21-O21</f>
+        <f t="shared" ref="S21:S25" si="28">C21-O21</f>
         <v>0</v>
       </c>
       <c r="T21" s="16">
-        <f t="shared" ref="T21:T25" si="25">D21-P21</f>
+        <f t="shared" ref="T21:T25" si="29">D21-P21</f>
         <v>0</v>
       </c>
       <c r="U21" s="26">
-        <f t="shared" ref="U21:U25" si="26">S21/C21</f>
+        <f t="shared" ref="U21:U25" si="30">S21/C21</f>
         <v>0</v>
       </c>
       <c r="V21" s="26">
-        <f t="shared" ref="V21:V25" si="27">T21/D21</f>
+        <f t="shared" ref="V21:V25" si="31">T21/D21</f>
         <v>0</v>
       </c>
       <c r="W21" s="16"/>
@@ -3187,18 +3181,18 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="16">
-        <f t="shared" ref="A22:A25" si="28">A21+1</f>
+        <f t="shared" ref="A22:A25" si="32">A21+1</f>
         <v>2</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
       <c r="D22" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="E22" s="16"/>
@@ -3216,35 +3210,35 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="Q22" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="R22" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="S22" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T22" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U22" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V22" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W22" s="16"/>
@@ -3256,18 +3250,18 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
       <c r="D23" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="E23" s="16"/>
@@ -3285,35 +3279,35 @@
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="P23" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="Q23" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="R23" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="S23" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T23" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U23" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V23" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W23" s="16"/>
@@ -3325,18 +3319,18 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
       <c r="D24" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="E24" s="16"/>
@@ -3350,35 +3344,35 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P24" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q24" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R24" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S24" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="U24" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="V24" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W24" s="16"/>
@@ -3390,18 +3384,18 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
       <c r="D25" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="E25" s="16"/>
@@ -3419,35 +3413,35 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="P25" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="Q25" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="R25" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="S25" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U25" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V25" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W25" s="16"/>
@@ -3495,7 +3489,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="Y21" sqref="Y21:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -3524,7 +3518,7 @@
     <col min="22" max="22" width="7.57142857142857" style="1" customWidth="1"/>
     <col min="23" max="23" width="2.85714285714286" style="1" customWidth="1"/>
     <col min="24" max="24" width="2.42857142857143" style="1" customWidth="1"/>
-    <col min="25" max="25" width="2.71428571428571" style="1" customWidth="1"/>
+    <col min="25" max="25" width="3.42857142857143" style="1" customWidth="1"/>
     <col min="26" max="26" width="7.71428571428571" style="1" customWidth="1"/>
     <col min="27" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -3848,25 +3842,26 @@
       <c r="X8" s="8">
         <v>1</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="30">
+        <f t="shared" ref="Y8:Y14" si="8">S8-W8-X8</f>
         <v>1</v>
       </c>
       <c r="Z8" s="16"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="12">
-        <f t="shared" ref="A9:A14" si="8">A8+1</f>
+        <f t="shared" ref="A9:A14" si="9">A8+1</f>
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="12">
-        <f>$C$8</f>
+        <f t="shared" ref="C9:C14" si="10">$C$8</f>
         <v>24</v>
       </c>
       <c r="D9" s="12">
-        <f>$D$8</f>
+        <f t="shared" ref="D9:D14" si="11">$D$8</f>
         <v>12</v>
       </c>
       <c r="E9" s="8">
@@ -3923,25 +3918,28 @@
       <c r="X9" s="8">
         <v>1</v>
       </c>
-      <c r="Y9" s="8"/>
+      <c r="Y9" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="Z9" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12">
-        <f>$C$8</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="D10" s="12">
-        <f>$D$8</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="E10" s="8">
@@ -3998,25 +3996,28 @@
       <c r="X10" s="8">
         <v>1</v>
       </c>
-      <c r="Y10" s="8"/>
+      <c r="Y10" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="Z10" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="12">
-        <f>$C$8</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="D11" s="12">
-        <f>$D$8</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="E11" s="8">
@@ -4073,25 +4074,28 @@
       <c r="X11" s="8">
         <v>1</v>
       </c>
-      <c r="Y11" s="8"/>
+      <c r="Y11" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="Z11" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="12">
-        <f>$C$8</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="D12" s="12">
-        <f>$D$8</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="E12" s="8">
@@ -4148,25 +4152,28 @@
       <c r="X12" s="8">
         <v>1</v>
       </c>
-      <c r="Y12" s="8"/>
+      <c r="Y12" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="Z12" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="12">
-        <f>$C$8</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="D13" s="12">
-        <f>$D$8</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="E13" s="8">
@@ -4223,25 +4230,28 @@
       <c r="X13" s="8">
         <v>1</v>
       </c>
-      <c r="Y13" s="8"/>
+      <c r="Y13" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="Z13" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="12">
-        <f>$C$8</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="D14" s="12">
-        <f>$D$8</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="E14" s="8">
@@ -4251,7 +4261,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" s="8">
         <v>6</v>
@@ -4264,7 +4274,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="12">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P14" s="12">
         <f t="shared" si="1"/>
@@ -4272,7 +4282,7 @@
       </c>
       <c r="Q14" s="26">
         <f t="shared" si="2"/>
-        <v>0.791666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="R14" s="26">
         <f t="shared" si="3"/>
@@ -4280,7 +4290,7 @@
       </c>
       <c r="S14" s="12">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T14" s="12">
         <f t="shared" si="5"/>
@@ -4288,7 +4298,7 @@
       </c>
       <c r="U14" s="26">
         <f t="shared" si="6"/>
-        <v>0.208333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="V14" s="26">
         <f t="shared" si="7"/>
@@ -4298,8 +4308,9 @@
       <c r="X14" s="8">
         <v>1</v>
       </c>
-      <c r="Y14" s="8">
-        <v>1</v>
+      <c r="Y14" s="30">
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="Z14" s="16">
         <v>2</v>
@@ -4333,7 +4344,7 @@
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
-      <c r="Z15" s="30"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="16">
@@ -4343,11 +4354,11 @@
         <v>23</v>
       </c>
       <c r="C16" s="12">
-        <f>$C$8</f>
+        <f t="shared" ref="C16:C19" si="12">$C$8</f>
         <v>24</v>
       </c>
       <c r="D16" s="12">
-        <f>$D$8</f>
+        <f t="shared" ref="D16:D19" si="13">$D$8</f>
         <v>12</v>
       </c>
       <c r="E16" s="16">
@@ -4369,58 +4380,61 @@
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="12">
-        <f t="shared" ref="O16:O19" si="9">E16+G16+I16+K16+M16</f>
+        <f t="shared" ref="O16:O19" si="14">E16+G16+I16+K16+M16</f>
         <v>24</v>
       </c>
       <c r="P16" s="12">
-        <f t="shared" ref="P16:P19" si="10">F16+H16+J16+L16+N16</f>
+        <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
         <v>12</v>
       </c>
       <c r="Q16" s="26">
-        <f t="shared" ref="Q16:Q19" si="11">O16/C16</f>
+        <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
         <v>1</v>
       </c>
       <c r="R16" s="26">
-        <f t="shared" ref="R16:R19" si="12">P16/D16</f>
+        <f t="shared" ref="R16:R19" si="17">P16/D16</f>
         <v>1</v>
       </c>
       <c r="S16" s="12">
-        <f t="shared" ref="S16:S19" si="13">C16-O16</f>
+        <f t="shared" ref="S16:S19" si="18">C16-O16</f>
         <v>0</v>
       </c>
       <c r="T16" s="12">
-        <f t="shared" ref="T16:T19" si="14">D16-P16</f>
+        <f t="shared" ref="T16:T19" si="19">D16-P16</f>
         <v>0</v>
       </c>
       <c r="U16" s="26">
-        <f t="shared" ref="U16:U19" si="15">S16/C16</f>
+        <f t="shared" ref="U16:U19" si="20">S16/C16</f>
         <v>0</v>
       </c>
       <c r="V16" s="26">
-        <f t="shared" ref="V16:V19" si="16">T16/D16</f>
+        <f t="shared" ref="V16:V19" si="21">T16/D16</f>
         <v>0</v>
       </c>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
+      <c r="Y16" s="30">
+        <f t="shared" ref="Y16:Y19" si="22">S16-W16-X16</f>
+        <v>0</v>
+      </c>
       <c r="Z16" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="16">
-        <f t="shared" ref="A17:A19" si="17">A16+1</f>
+        <f t="shared" ref="A17:A19" si="23">A16+1</f>
         <v>2</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="D17" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="E17" s="16">
@@ -4442,58 +4456,61 @@
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="P17" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="Q17" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R17" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="S17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T17" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U17" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V17" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
+      <c r="Y17" s="30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="Z17" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="D18" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="E18" s="16">
@@ -4515,58 +4532,61 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="P18" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="Q18" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R18" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="S18" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T18" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U18" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V18" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
+      <c r="Y18" s="30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="Z18" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="D19" s="18">
-        <f>$D$8</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="E19" s="16">
@@ -4588,40 +4608,43 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="P19" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="Q19" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R19" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="S19" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T19" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U19" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V19" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
+      <c r="Y19" s="30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="Z19" s="16">
         <v>2</v>
       </c>
@@ -4654,7 +4677,7 @@
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
-      <c r="Z20" s="31"/>
+      <c r="Z20" s="32"/>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="16">
@@ -4664,11 +4687,11 @@
         <v>29</v>
       </c>
       <c r="C21" s="16">
-        <f>$C$8</f>
+        <f t="shared" ref="C21:C25" si="24">$C$8</f>
         <v>24</v>
       </c>
       <c r="D21" s="18">
-        <f>$D$8</f>
+        <f t="shared" ref="D21:D25" si="25">$D$8</f>
         <v>12</v>
       </c>
       <c r="E21" s="16">
@@ -4690,58 +4713,61 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16">
-        <f t="shared" ref="O21:O25" si="18">E21+G21+I21+K21+M21</f>
+        <f t="shared" ref="O21:O25" si="26">E21+G21+I21+K21+M21</f>
         <v>24</v>
       </c>
       <c r="P21" s="16">
-        <f t="shared" ref="P21:P25" si="19">F21+H21+J21+L21+N21</f>
+        <f t="shared" ref="P21:P25" si="27">F21+H21+J21+L21+N21</f>
         <v>12</v>
       </c>
       <c r="Q21" s="27">
-        <f t="shared" ref="Q21:Q25" si="20">O21/C21</f>
+        <f t="shared" ref="Q21:Q25" si="28">O21/C21</f>
         <v>1</v>
       </c>
       <c r="R21" s="27">
-        <f t="shared" ref="R21:R25" si="21">P21/D21</f>
+        <f t="shared" ref="R21:R25" si="29">P21/D21</f>
         <v>1</v>
       </c>
       <c r="S21" s="16">
-        <f t="shared" ref="S21:S25" si="22">C21-O21</f>
+        <f t="shared" ref="S21:S25" si="30">C21-O21</f>
         <v>0</v>
       </c>
       <c r="T21" s="16">
-        <f t="shared" ref="T21:T25" si="23">D21-P21</f>
+        <f t="shared" ref="T21:T25" si="31">D21-P21</f>
         <v>0</v>
       </c>
       <c r="U21" s="26">
-        <f t="shared" ref="U21:U25" si="24">S21/C21</f>
+        <f t="shared" ref="U21:U25" si="32">S21/C21</f>
         <v>0</v>
       </c>
       <c r="V21" s="26">
-        <f t="shared" ref="V21:V25" si="25">T21/D21</f>
+        <f t="shared" ref="V21:V25" si="33">T21/D21</f>
         <v>0</v>
       </c>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
+      <c r="Y21" s="30">
+        <f t="shared" ref="Y21:Y25" si="34">S21-W21-X21</f>
+        <v>0</v>
+      </c>
       <c r="Z21" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="16">
-        <f t="shared" ref="A22:A25" si="26">A21+1</f>
+        <f t="shared" ref="A22:A25" si="35">A21+1</f>
         <v>2</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="D22" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="E22" s="16">
@@ -4763,58 +4789,61 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="Q22" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R22" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="S22" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V22" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
+      <c r="Y22" s="30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="Z22" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="D23" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="E23" s="16">
@@ -4836,58 +4865,61 @@
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="P23" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="Q23" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R23" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="S23" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T23" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U23" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V23" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
+      <c r="Y23" s="30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="Z23" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="D24" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="E24" s="16"/>
@@ -4901,56 +4933,59 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P24" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q24" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R24" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S24" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>24</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="U24" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V24" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
+      <c r="Y24" s="30">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
       <c r="Z24" s="16"/>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="16">
-        <f>$C$8</f>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="D25" s="16">
-        <f>$D$8</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="E25" s="16">
@@ -4972,40 +5007,43 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="P25" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="Q25" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R25" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="S25" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U25" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V25" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
+      <c r="Y25" s="30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="Z25" s="16">
         <v>2</v>
       </c>

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -190,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
@@ -253,9 +253,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +268,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -278,7 +330,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,53 +366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,47 +383,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -406,31 +406,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,19 +484,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,31 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,37 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +678,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,15 +711,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -713,6 +722,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,186 +775,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1014,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3489,7 +3489,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21:Y25"/>
+      <selection activeCell="I8" sqref="I8:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -3782,11 +3782,11 @@
       </c>
       <c r="C8" s="12">
         <f>MAX(O8:O14,O16:O19,O21:O25)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8" s="12">
         <f>MAX(P8:P14,P16:P19,P21:P25)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E8" s="8">
         <v>11</v>
@@ -3800,23 +3800,27 @@
       <c r="H8" s="8">
         <v>6</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="8">
+        <v>12</v>
+      </c>
+      <c r="J8" s="8">
+        <v>12</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="12">
         <f t="shared" ref="O8:O14" si="0">E8+G8+I8+K8+M8</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="P8" s="12">
         <f t="shared" ref="P8:P14" si="1">F8+H8+J8+L8+N8</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="26">
         <f t="shared" ref="Q8:Q14" si="2">O8/C8</f>
-        <v>0.916666666666667</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="R8" s="26">
         <f t="shared" ref="R8:R14" si="3">P8/D8</f>
@@ -3832,7 +3836,7 @@
       </c>
       <c r="U8" s="26">
         <f t="shared" ref="U8:U14" si="6">S8/C8</f>
-        <v>0.0833333333333333</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="V8" s="26">
         <f t="shared" ref="V8:V14" si="7">T8/D8</f>
@@ -3858,11 +3862,11 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ref="C9:C14" si="10">$C$8</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" ref="D9:D14" si="11">$D$8</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8">
         <v>12</v>
@@ -3876,23 +3880,27 @@
       <c r="H9" s="8">
         <v>6</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="8">
+        <v>12</v>
+      </c>
+      <c r="J9" s="8">
+        <v>12</v>
+      </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="P9" s="12">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="26">
         <f t="shared" si="2"/>
-        <v>0.958333333333333</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="R9" s="26">
         <f t="shared" si="3"/>
@@ -3908,7 +3916,7 @@
       </c>
       <c r="U9" s="26">
         <f t="shared" si="6"/>
-        <v>0.0416666666666667</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="V9" s="26">
         <f t="shared" si="7"/>
@@ -3936,11 +3944,11 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E10" s="8">
         <v>12</v>
@@ -3954,23 +3962,27 @@
       <c r="H10" s="8">
         <v>6</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="8">
+        <v>12</v>
+      </c>
+      <c r="J10" s="8">
+        <v>12</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="P10" s="12">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="26">
         <f t="shared" si="2"/>
-        <v>0.958333333333333</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="3"/>
@@ -3986,7 +3998,7 @@
       </c>
       <c r="U10" s="26">
         <f t="shared" si="6"/>
-        <v>0.0416666666666667</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="V10" s="26">
         <f t="shared" si="7"/>
@@ -4014,11 +4026,11 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E11" s="8">
         <v>12</v>
@@ -4032,23 +4044,27 @@
       <c r="H11" s="8">
         <v>6</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="8">
+        <v>12</v>
+      </c>
+      <c r="J11" s="8">
+        <v>12</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="P11" s="12">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="26">
         <f t="shared" si="2"/>
-        <v>0.958333333333333</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="R11" s="26">
         <f t="shared" si="3"/>
@@ -4064,7 +4080,7 @@
       </c>
       <c r="U11" s="26">
         <f t="shared" si="6"/>
-        <v>0.0416666666666667</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="V11" s="26">
         <f t="shared" si="7"/>
@@ -4079,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4092,11 +4108,11 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8">
         <v>12</v>
@@ -4110,23 +4126,27 @@
       <c r="H12" s="8">
         <v>6</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="8">
+        <v>12</v>
+      </c>
+      <c r="J12" s="8">
+        <v>12</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="P12" s="12">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="26">
         <f t="shared" si="2"/>
-        <v>0.958333333333333</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="R12" s="26">
         <f t="shared" si="3"/>
@@ -4142,7 +4162,7 @@
       </c>
       <c r="U12" s="26">
         <f t="shared" si="6"/>
-        <v>0.0416666666666667</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="V12" s="26">
         <f t="shared" si="7"/>
@@ -4170,11 +4190,11 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E13" s="8">
         <v>12</v>
@@ -4188,23 +4208,27 @@
       <c r="H13" s="8">
         <v>6</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="8">
+        <v>12</v>
+      </c>
+      <c r="J13" s="8">
+        <v>12</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="P13" s="12">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="2"/>
-        <v>0.958333333333333</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="3"/>
@@ -4220,7 +4244,7 @@
       </c>
       <c r="U13" s="26">
         <f t="shared" si="6"/>
-        <v>0.0416666666666667</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="V13" s="26">
         <f t="shared" si="7"/>
@@ -4248,11 +4272,11 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E14" s="8">
         <v>11</v>
@@ -4266,23 +4290,27 @@
       <c r="H14" s="8">
         <v>6</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="8">
+        <v>12</v>
+      </c>
+      <c r="J14" s="8">
+        <v>12</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="12">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="P14" s="12">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="26">
         <f t="shared" si="2"/>
-        <v>0.875</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="R14" s="26">
         <f t="shared" si="3"/>
@@ -4298,7 +4326,7 @@
       </c>
       <c r="U14" s="26">
         <f t="shared" si="6"/>
-        <v>0.125</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V14" s="26">
         <f t="shared" si="7"/>
@@ -4355,11 +4383,11 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ref="C16:C19" si="12">$C$8</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" ref="D16:D19" si="13">$D$8</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E16" s="16">
         <v>12</v>
@@ -4373,19 +4401,23 @@
       <c r="H16" s="16">
         <v>6</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="I16" s="16">
+        <v>12</v>
+      </c>
+      <c r="J16" s="16">
+        <v>12</v>
+      </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="12">
         <f t="shared" ref="O16:O19" si="14">E16+G16+I16+K16+M16</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P16" s="12">
         <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="26">
         <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
@@ -4431,11 +4463,11 @@
       </c>
       <c r="C17" s="16">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D17" s="16">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E17" s="16">
         <v>12</v>
@@ -4449,19 +4481,23 @@
       <c r="H17" s="16">
         <v>6</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="I17" s="16">
+        <v>12</v>
+      </c>
+      <c r="J17" s="16">
+        <v>12</v>
+      </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P17" s="16">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="27">
         <f t="shared" si="16"/>
@@ -4507,11 +4543,11 @@
       </c>
       <c r="C18" s="16">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D18" s="16">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E18" s="16">
         <v>12</v>
@@ -4525,19 +4561,23 @@
       <c r="H18" s="16">
         <v>6</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="16">
+        <v>12</v>
+      </c>
+      <c r="J18" s="16">
+        <v>12</v>
+      </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P18" s="16">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="27">
         <f t="shared" si="16"/>
@@ -4583,11 +4623,11 @@
       </c>
       <c r="C19" s="16">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E19" s="16">
         <v>12</v>
@@ -4601,19 +4641,23 @@
       <c r="H19" s="16">
         <v>6</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="I19" s="16">
+        <v>12</v>
+      </c>
+      <c r="J19" s="16">
+        <v>12</v>
+      </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P19" s="16">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="27">
         <f t="shared" si="16"/>
@@ -4646,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -4688,11 +4732,11 @@
       </c>
       <c r="C21" s="16">
         <f t="shared" ref="C21:C25" si="24">$C$8</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ref="D21:D25" si="25">$D$8</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E21" s="16">
         <v>12</v>
@@ -4706,19 +4750,23 @@
       <c r="H21" s="16">
         <v>6</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="I21" s="16">
+        <v>12</v>
+      </c>
+      <c r="J21" s="16">
+        <v>12</v>
+      </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16">
         <f t="shared" ref="O21:O25" si="26">E21+G21+I21+K21+M21</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P21" s="16">
         <f t="shared" ref="P21:P25" si="27">F21+H21+J21+L21+N21</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="27">
         <f t="shared" ref="Q21:Q25" si="28">O21/C21</f>
@@ -4764,11 +4812,11 @@
       </c>
       <c r="C22" s="16">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D22" s="16">
         <f t="shared" si="25"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16">
         <v>12</v>
@@ -4782,19 +4830,23 @@
       <c r="H22" s="16">
         <v>6</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="I22" s="16">
+        <v>12</v>
+      </c>
+      <c r="J22" s="16">
+        <v>12</v>
+      </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16">
         <f t="shared" si="26"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P22" s="16">
         <f t="shared" si="27"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="27">
         <f t="shared" si="28"/>
@@ -4840,11 +4892,11 @@
       </c>
       <c r="C23" s="16">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" si="25"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E23" s="16">
         <v>12</v>
@@ -4858,19 +4910,23 @@
       <c r="H23" s="16">
         <v>6</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="I23" s="16">
+        <v>12</v>
+      </c>
+      <c r="J23" s="16">
+        <v>12</v>
+      </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16">
         <f t="shared" si="26"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P23" s="16">
         <f t="shared" si="27"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="27">
         <f t="shared" si="28"/>
@@ -4916,11 +4972,11 @@
       </c>
       <c r="C24" s="16">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D24" s="16">
         <f t="shared" si="25"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -4950,11 +5006,11 @@
       </c>
       <c r="S24" s="16">
         <f t="shared" si="30"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="T24" s="16">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="U24" s="26">
         <f t="shared" si="32"/>
@@ -4968,7 +5024,7 @@
       <c r="X24" s="16"/>
       <c r="Y24" s="30">
         <f t="shared" si="34"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Z24" s="16"/>
     </row>
@@ -4982,11 +5038,11 @@
       </c>
       <c r="C25" s="16">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D25" s="16">
         <f t="shared" si="25"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E25" s="16">
         <v>12</v>
@@ -5000,19 +5056,23 @@
       <c r="H25" s="16">
         <v>6</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
+      <c r="I25" s="16">
+        <v>12</v>
+      </c>
+      <c r="J25" s="16">
+        <v>12</v>
+      </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16">
         <f t="shared" si="26"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P25" s="16">
         <f t="shared" si="27"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q25" s="27">
         <f t="shared" si="28"/>

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20895" windowHeight="11850" activeTab="3"/>
+    <workbookView windowWidth="20895" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="juziyah putra" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>MADRASAH BAITUL IZZAH</t>
   </si>
@@ -58,12 +58,18 @@
     <t>Abdurrahman Al-Zuhdi</t>
   </si>
   <si>
+    <t>1, 2</t>
+  </si>
+  <si>
     <t>Dzaakir Hawaary Arbie</t>
   </si>
   <si>
     <t>Jafar As-Shodiq Habibullah Fatah</t>
   </si>
   <si>
+    <t>30, 1</t>
+  </si>
+  <si>
     <t>Muhammad Fatih Yusuf Rahman</t>
   </si>
   <si>
@@ -91,12 +97,12 @@
     <t>Jahrisa Juana</t>
   </si>
   <si>
-    <t>30, 1</t>
-  </si>
-  <si>
     <t>Muthia Shofia</t>
   </si>
   <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
     <t>Nadyne Fathiya Chairinda</t>
   </si>
   <si>
@@ -110,6 +116,9 @@
   </si>
   <si>
     <t>Nada Sahla Syahidah</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
   </si>
   <si>
     <t>Nur Azizah</t>
@@ -190,10 +199,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
@@ -253,6 +262,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -260,11 +277,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,22 +300,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -306,24 +307,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,36 +338,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -383,15 +361,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,13 +433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,31 +457,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,13 +505,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,97 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,24 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -711,6 +702,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -722,6 +722,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,8 +764,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,164 +784,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1023,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,8 +1483,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1590,7 +1599,9 @@
       <c r="C9" s="16">
         <v>30</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1601,10 +1612,12 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16">
+        <v>30</v>
+      </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1615,10 +1628,12 @@
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -1629,10 +1644,12 @@
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>30</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -1643,12 +1660,14 @@
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="16">
         <v>30</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1659,27 +1678,29 @@
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="16">
         <v>30</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
     <row r="16" ht="17.25" spans="2:6">
       <c r="B16" s="43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="54" spans="2:6">
       <c r="B17" s="46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" s="44"/>
     </row>
@@ -1716,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1734,7 +1755,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1801,7 +1822,7 @@
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -1815,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1831,12 +1852,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="16">
         <v>30</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1847,10 +1870,12 @@
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16">
+        <v>30</v>
+      </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1861,19 +1886,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="16">
         <v>30</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1887,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="16">
         <v>30</v>
@@ -1903,12 +1930,14 @@
         <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -1919,12 +1948,14 @@
         <v>3</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="16">
         <v>30</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1935,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1949,27 +1980,29 @@
         <v>5</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" s="16">
         <v>30</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
     <row r="19" ht="17.25" spans="3:6">
       <c r="C19" s="43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="64" customHeight="1" spans="2:6">
       <c r="B20" s="45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20" s="45"/>
       <c r="F20" s="44"/>
@@ -2046,7 +2079,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2076,7 +2109,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2112,11 +2145,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2128,28 +2161,28 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T4" s="21"/>
       <c r="U4" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V4" s="23"/>
       <c r="W4" s="21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2158,23 +2191,23 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="21"/>
@@ -2194,73 +2227,73 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U6" s="24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="W6" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X6" s="25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z6" s="28"/>
     </row>
@@ -2435,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="9"/>
@@ -2502,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="9"/>
@@ -2569,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="9"/>
@@ -2636,7 +2669,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="9"/>
@@ -2705,7 +2738,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="9"/>
@@ -2772,7 +2805,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -2805,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" ref="C16:C19" si="11">$C$8</f>
@@ -2876,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" si="11"/>
@@ -2947,7 +2980,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="16">
         <f t="shared" si="11"/>
@@ -3016,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="16">
         <f t="shared" si="11"/>
@@ -3083,7 +3116,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -3116,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="16">
         <f t="shared" ref="C21:C25" si="22">$C$8</f>
@@ -3185,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" s="16">
         <f t="shared" si="22"/>
@@ -3254,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C23" s="16">
         <f t="shared" si="22"/>
@@ -3323,7 +3356,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C24" s="16">
         <f t="shared" si="22"/>
@@ -3388,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C25" s="16">
         <f t="shared" si="22"/>
@@ -3488,8 +3521,8 @@
   <sheetPr/>
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21:Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -3525,7 +3558,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3555,7 +3588,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3591,11 +3624,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3607,28 +3640,28 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T4" s="21"/>
       <c r="U4" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V4" s="23"/>
       <c r="W4" s="21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -3637,23 +3670,23 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="21"/>
@@ -3673,73 +3706,73 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U6" s="24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="W6" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X6" s="25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z6" s="28"/>
     </row>
@@ -3782,11 +3815,11 @@
       </c>
       <c r="C8" s="12">
         <f>MAX(O8:O14,O16:O19,O21:O25)</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D8" s="12">
         <f>MAX(P8:P14,P16:P19,P21:P25)</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E8" s="8">
         <v>11</v>
@@ -3806,25 +3839,29 @@
       <c r="J8" s="8">
         <v>12</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="K8" s="8">
+        <v>10</v>
+      </c>
+      <c r="L8" s="8">
+        <v>8</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="12">
         <f t="shared" ref="O8:O14" si="0">E8+G8+I8+K8+M8</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P8" s="12">
         <f t="shared" ref="P8:P14" si="1">F8+H8+J8+L8+N8</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="26">
         <f t="shared" ref="Q8:Q14" si="2">O8/C8</f>
-        <v>0.944444444444444</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="R8" s="26">
         <f t="shared" ref="R8:R14" si="3">P8/D8</f>
-        <v>1</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="S8" s="12">
         <f t="shared" ref="S8:S14" si="4">C8-O8</f>
@@ -3832,15 +3869,15 @@
       </c>
       <c r="T8" s="12">
         <f t="shared" ref="T8:T14" si="5">D8-P8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="26">
         <f t="shared" ref="U8:U14" si="6">S8/C8</f>
-        <v>0.0555555555555556</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="V8" s="26">
         <f t="shared" ref="V8:V14" si="7">T8/D8</f>
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="W8" s="8"/>
       <c r="X8" s="8">
@@ -3862,11 +3899,11 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ref="C9:C14" si="10">$C$8</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" ref="D9:D14" si="11">$D$8</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E9" s="8">
         <v>12</v>
@@ -3886,21 +3923,25 @@
       <c r="J9" s="8">
         <v>12</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="K9" s="8">
+        <v>10</v>
+      </c>
+      <c r="L9" s="8">
+        <v>9</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P9" s="12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="26">
         <f t="shared" si="2"/>
-        <v>0.972222222222222</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="R9" s="26">
         <f t="shared" si="3"/>
@@ -3916,7 +3957,7 @@
       </c>
       <c r="U9" s="26">
         <f t="shared" si="6"/>
-        <v>0.0277777777777778</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="V9" s="26">
         <f t="shared" si="7"/>
@@ -3940,15 +3981,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8">
         <v>12</v>
@@ -3968,25 +4009,29 @@
       <c r="J10" s="8">
         <v>12</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="K10" s="8">
+        <v>10</v>
+      </c>
+      <c r="L10" s="8">
+        <v>7</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P10" s="12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="26">
         <f t="shared" si="2"/>
-        <v>0.972222222222222</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="S10" s="12">
         <f t="shared" si="4"/>
@@ -3994,15 +4039,15 @@
       </c>
       <c r="T10" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" s="26">
         <f t="shared" si="6"/>
-        <v>0.0277777777777778</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="V10" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0606060606060606</v>
       </c>
       <c r="W10" s="8"/>
       <c r="X10" s="8">
@@ -4022,15 +4067,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E11" s="8">
         <v>12</v>
@@ -4050,25 +4095,29 @@
       <c r="J11" s="8">
         <v>12</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="K11" s="8">
+        <v>10</v>
+      </c>
+      <c r="L11" s="8">
+        <v>8</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P11" s="12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="26">
         <f t="shared" si="2"/>
-        <v>0.972222222222222</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="R11" s="26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="S11" s="12">
         <f t="shared" si="4"/>
@@ -4076,15 +4125,15 @@
       </c>
       <c r="T11" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="26">
         <f t="shared" si="6"/>
-        <v>0.0277777777777778</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="V11" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="W11" s="8"/>
       <c r="X11" s="8">
@@ -4104,15 +4153,15 @@
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8">
         <v>12</v>
@@ -4132,25 +4181,29 @@
       <c r="J12" s="8">
         <v>12</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="K12" s="8">
+        <v>10</v>
+      </c>
+      <c r="L12" s="8">
+        <v>6</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P12" s="12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="26">
         <f t="shared" si="2"/>
-        <v>0.972222222222222</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="R12" s="26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="S12" s="12">
         <f t="shared" si="4"/>
@@ -4158,15 +4211,15 @@
       </c>
       <c r="T12" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12" s="26">
         <f t="shared" si="6"/>
-        <v>0.0277777777777778</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="V12" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="W12" s="8"/>
       <c r="X12" s="8">
@@ -4186,15 +4239,15 @@
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E13" s="8">
         <v>12</v>
@@ -4214,25 +4267,29 @@
       <c r="J13" s="8">
         <v>12</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="K13" s="8">
+        <v>10</v>
+      </c>
+      <c r="L13" s="8">
+        <v>8</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P13" s="12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="2"/>
-        <v>0.972222222222222</v>
+        <v>0.978260869565217</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="S13" s="12">
         <f t="shared" si="4"/>
@@ -4240,15 +4297,15 @@
       </c>
       <c r="T13" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="26">
         <f t="shared" si="6"/>
-        <v>0.0277777777777778</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="V13" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="W13" s="8"/>
       <c r="X13" s="8">
@@ -4268,15 +4325,15 @@
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8">
         <v>11</v>
@@ -4296,25 +4353,29 @@
       <c r="J14" s="8">
         <v>12</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="K14" s="8">
+        <v>10</v>
+      </c>
+      <c r="L14" s="8">
+        <v>5</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="12">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P14" s="12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="26">
         <f t="shared" si="2"/>
-        <v>0.916666666666667</v>
+        <v>0.934782608695652</v>
       </c>
       <c r="R14" s="26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="S14" s="12">
         <f t="shared" si="4"/>
@@ -4322,15 +4383,15 @@
       </c>
       <c r="T14" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U14" s="26">
         <f t="shared" si="6"/>
-        <v>0.0833333333333333</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="V14" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="W14" s="8"/>
       <c r="X14" s="8">
@@ -4346,7 +4407,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -4379,15 +4440,15 @@
         <v>1</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" ref="C16:C19" si="12">$C$8</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" ref="D16:D19" si="13">$D$8</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E16" s="16">
         <v>12</v>
@@ -4407,17 +4468,21 @@
       <c r="J16" s="16">
         <v>12</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+      <c r="K16" s="16">
+        <v>10</v>
+      </c>
+      <c r="L16" s="16">
+        <v>9</v>
+      </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="12">
         <f t="shared" ref="O16:O19" si="14">E16+G16+I16+K16+M16</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P16" s="12">
         <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="26">
         <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
@@ -4459,15 +4524,15 @@
         <v>2</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D17" s="16">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E17" s="16">
         <v>12</v>
@@ -4487,17 +4552,21 @@
       <c r="J17" s="16">
         <v>12</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="K17" s="16">
+        <v>10</v>
+      </c>
+      <c r="L17" s="16">
+        <v>9</v>
+      </c>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16">
         <f t="shared" si="14"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P17" s="16">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="27">
         <f t="shared" si="16"/>
@@ -4530,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -4539,15 +4608,15 @@
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="16">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D18" s="16">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E18" s="16">
         <v>12</v>
@@ -4567,17 +4636,21 @@
       <c r="J18" s="16">
         <v>12</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="K18" s="16">
+        <v>10</v>
+      </c>
+      <c r="L18" s="16">
+        <v>9</v>
+      </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16">
         <f t="shared" si="14"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P18" s="16">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="27">
         <f t="shared" si="16"/>
@@ -4619,15 +4692,15 @@
         <v>4</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="16">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E19" s="16">
         <v>12</v>
@@ -4647,17 +4720,21 @@
       <c r="J19" s="16">
         <v>12</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="K19" s="16">
+        <v>10</v>
+      </c>
+      <c r="L19" s="16">
+        <v>9</v>
+      </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16">
         <f t="shared" si="14"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P19" s="16">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="27">
         <f t="shared" si="16"/>
@@ -4695,7 +4772,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -4728,15 +4805,15 @@
         <v>1</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="16">
         <f t="shared" ref="C21:C25" si="24">$C$8</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ref="D21:D25" si="25">$D$8</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E21" s="16">
         <v>12</v>
@@ -4756,17 +4833,21 @@
       <c r="J21" s="16">
         <v>12</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="K21" s="16">
+        <v>10</v>
+      </c>
+      <c r="L21" s="16">
+        <v>9</v>
+      </c>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16">
         <f t="shared" ref="O21:O25" si="26">E21+G21+I21+K21+M21</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P21" s="16">
         <f t="shared" ref="P21:P25" si="27">F21+H21+J21+L21+N21</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="27">
         <f t="shared" ref="Q21:Q25" si="28">O21/C21</f>
@@ -4808,15 +4889,15 @@
         <v>2</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" s="16">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D22" s="16">
         <f t="shared" si="25"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E22" s="16">
         <v>12</v>
@@ -4836,17 +4917,21 @@
       <c r="J22" s="16">
         <v>12</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
+      <c r="K22" s="16">
+        <v>10</v>
+      </c>
+      <c r="L22" s="16">
+        <v>9</v>
+      </c>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16">
         <f t="shared" si="26"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P22" s="16">
         <f t="shared" si="27"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="27">
         <f t="shared" si="28"/>
@@ -4879,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -4888,15 +4973,15 @@
         <v>3</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C23" s="16">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" si="25"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E23" s="16">
         <v>12</v>
@@ -4916,17 +5001,21 @@
       <c r="J23" s="16">
         <v>12</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
+      <c r="K23" s="16">
+        <v>10</v>
+      </c>
+      <c r="L23" s="16">
+        <v>9</v>
+      </c>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16">
         <f t="shared" si="26"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P23" s="16">
         <f t="shared" si="27"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="27">
         <f t="shared" si="28"/>
@@ -4968,15 +5057,15 @@
         <v>4</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C24" s="16">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D24" s="16">
         <f t="shared" si="25"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -4984,13 +5073,15 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="K24" s="16">
+        <v>2</v>
+      </c>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" s="16">
         <f t="shared" si="27"/>
@@ -4998,7 +5089,7 @@
       </c>
       <c r="Q24" s="27">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="R24" s="27">
         <f t="shared" si="29"/>
@@ -5006,15 +5097,15 @@
       </c>
       <c r="S24" s="16">
         <f t="shared" si="30"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T24" s="16">
         <f t="shared" si="31"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="U24" s="26">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="V24" s="26">
         <f t="shared" si="33"/>
@@ -5024,7 +5115,7 @@
       <c r="X24" s="16"/>
       <c r="Y24" s="30">
         <f t="shared" si="34"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Z24" s="16"/>
     </row>
@@ -5034,15 +5125,15 @@
         <v>5</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C25" s="16">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D25" s="16">
         <f t="shared" si="25"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E25" s="16">
         <v>12</v>
@@ -5062,17 +5153,21 @@
       <c r="J25" s="16">
         <v>12</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
+      <c r="K25" s="16">
+        <v>10</v>
+      </c>
+      <c r="L25" s="16">
+        <v>9</v>
+      </c>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16">
         <f t="shared" si="26"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P25" s="16">
         <f t="shared" si="27"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="27">
         <f t="shared" si="28"/>

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -201,7 +201,7 @@
     <t>28 - 3</t>
   </si>
   <si>
-    <t>4 - 10</t>
+    <t>5 - 10</t>
   </si>
   <si>
     <t>12 - 17</t>
@@ -219,12 +219,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -273,14 +266,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -296,16 +281,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -328,22 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,6 +327,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -367,21 +352,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,8 +373,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,8 +402,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -427,14 +420,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,7 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +446,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,13 +548,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,145 +614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,11 +706,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,17 +736,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,8 +774,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,23 +783,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,152 +808,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,9 +963,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -990,19 +972,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,20 +987,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1042,31 +1015,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,76 +1039,64 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1576,217 +1528,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <f t="shared" ref="A9:A14" si="0">A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="17">
         <v>30</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17">
         <v>30</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17">
         <v>30</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <v>30</v>
       </c>
-      <c r="D13" s="21">
-        <v>1</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>30</v>
       </c>
-      <c r="D14" s="21">
-        <v>1</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="16" ht="17.25" spans="2:6">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" ht="54" spans="2:6">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="55"/>
+      <c r="F19" s="45"/>
     </row>
   </sheetData>
   <sortState ref="B8:B14">
@@ -1830,266 +1782,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21">
-        <v>1</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21">
+      <c r="A9" s="17">
         <f t="shared" ref="A9:A11" si="0">A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <v>30</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21">
+      <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17">
         <v>30</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21">
+      <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="17">
         <v>30</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21">
-        <v>1</v>
-      </c>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="17">
+        <v>1</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <v>30</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21">
+      <c r="A14" s="17">
         <f t="shared" ref="A14:A17" si="1">A13+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21">
+      <c r="A15" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="17">
         <v>30</v>
       </c>
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21">
+      <c r="A16" s="17">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="21">
+      <c r="A17" s="17">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <v>30</v>
       </c>
-      <c r="D17" s="21">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="19" ht="17.25" spans="3:6">
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="64" customHeight="1" spans="2:6">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="F20" s="55"/>
+      <c r="C20" s="46"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="55"/>
+      <c r="B23" s="45"/>
     </row>
   </sheetData>
   <sortState ref="B13:B17">
@@ -2154,1409 +2106,1409 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="27" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="29" t="s">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="27" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="31" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="31"/>
-      <c r="W4" s="27" t="s">
+      <c r="V4" s="24"/>
+      <c r="W4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27" t="s">
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="36"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="29"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="U6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="V6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="W6" s="33" t="s">
+      <c r="W6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="X6" s="33" t="s">
+      <c r="X6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="33" t="s">
+      <c r="Y6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="Z6" s="36"/>
+      <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="37"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="30"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <f>MAX(O8:O14,O16:O19,O21:O25)</f>
         <v>12</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="13">
         <f>MAX(P8:P14,P16:P19,P21:P25)</f>
         <v>6</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13">
-        <v>12</v>
-      </c>
-      <c r="L8" s="13">
-        <v>6</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <v>12</v>
+      </c>
+      <c r="L8" s="9">
+        <v>6</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="13">
         <f t="shared" ref="O8:O14" si="0">E8+G8+I8+K8+M8</f>
         <v>12</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="13">
         <f t="shared" ref="P8:P14" si="1">F8+H8+J8+L8+N8</f>
         <v>6</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="27">
         <f t="shared" ref="Q8:Q14" si="2">O8/C8</f>
         <v>1</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="27">
         <f t="shared" ref="R8:R14" si="3">P8/D8</f>
         <v>1</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="13">
         <f t="shared" ref="S8:S14" si="4">C8-O8</f>
         <v>0</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="13">
         <f t="shared" ref="T8:T14" si="5">D8-P8</f>
         <v>0</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="27">
         <f t="shared" ref="U8:U14" si="6">S8/C8</f>
         <v>0</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="27">
         <f t="shared" ref="V8:V14" si="7">T8/D8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="21"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <f t="shared" ref="A9:A14" si="8">A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13">
         <f t="shared" ref="C9:C14" si="9">$C$8</f>
         <v>12</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <f t="shared" ref="D9:D14" si="10">$D$8</f>
         <v>6</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13">
-        <v>12</v>
-      </c>
-      <c r="L9" s="13">
-        <v>6</v>
-      </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="17">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>12</v>
+      </c>
+      <c r="L9" s="9">
+        <v>6</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="21">
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="13">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13">
-        <v>12</v>
-      </c>
-      <c r="L10" s="13">
-        <v>6</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="17">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9">
+        <v>12</v>
+      </c>
+      <c r="L10" s="9">
+        <v>6</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="21"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13">
-        <v>12</v>
-      </c>
-      <c r="L11" s="13">
-        <v>6</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="17">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
+        <v>12</v>
+      </c>
+      <c r="L11" s="9">
+        <v>6</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="21"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="13">
+      <c r="A12" s="9">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="13">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13">
-        <v>12</v>
-      </c>
-      <c r="L12" s="13">
-        <v>6</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="17">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <v>12</v>
+      </c>
+      <c r="L12" s="9">
+        <v>6</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="21"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13">
-        <v>12</v>
-      </c>
-      <c r="L13" s="13">
-        <v>6</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="17">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <v>12</v>
+      </c>
+      <c r="L13" s="9">
+        <v>6</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U13" s="34">
+      <c r="U13" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="21">
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
         <v>11</v>
       </c>
-      <c r="L14" s="13">
-        <v>6</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="17">
+      <c r="L14" s="9">
+        <v>6</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="27">
         <f t="shared" si="2"/>
         <v>0.916666666666667</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14" s="27">
         <f t="shared" si="6"/>
         <v>0.0833333333333333</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="21">
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="39"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="32"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="21">
-        <v>1</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="17">
+        <v>1</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <f t="shared" ref="C16:C19" si="11">$C$8</f>
         <v>12</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="13">
         <f t="shared" ref="D16:D19" si="12">$D$8</f>
         <v>6</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17">
         <v>11</v>
       </c>
-      <c r="L16" s="21">
-        <v>6</v>
-      </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="17">
+      <c r="L16" s="17">
+        <v>6</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="13">
         <f t="shared" ref="O16:O21" si="13">E16+G16+I16+K16+M16</f>
         <v>11</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="13">
         <f t="shared" ref="P16:P21" si="14">F16+H16+J16+L16+N16</f>
         <v>6</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="27">
         <f t="shared" ref="Q16:Q21" si="15">O16/C16</f>
         <v>0.916666666666667</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="27">
         <f t="shared" ref="R16:R21" si="16">P16/D16</f>
         <v>1</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="13">
         <f t="shared" ref="S16:S21" si="17">C16-O16</f>
         <v>1</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="13">
         <f t="shared" ref="T16:T21" si="18">D16-P16</f>
         <v>0</v>
       </c>
-      <c r="U16" s="34">
+      <c r="U16" s="27">
         <f t="shared" ref="U16:U19" si="19">S16/C16</f>
         <v>0.0833333333333333</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16" s="27">
         <f t="shared" ref="V16:V19" si="20">T16/D16</f>
         <v>0</v>
       </c>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21">
+      <c r="W16" s="17"/>
+      <c r="X16" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="21">
+      <c r="A17" s="17">
         <f t="shared" ref="A17:A19" si="21">A16+1</f>
         <v>2</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="17">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17">
         <v>11</v>
       </c>
-      <c r="L17" s="21">
-        <v>6</v>
-      </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21">
+      <c r="L17" s="17">
+        <v>6</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="17">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="28">
         <f t="shared" si="15"/>
         <v>0.916666666666667</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="28">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="17">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U17" s="34">
+      <c r="U17" s="27">
         <f t="shared" si="19"/>
         <v>0.0833333333333333</v>
       </c>
-      <c r="V17" s="34">
+      <c r="V17" s="27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21">
+      <c r="W17" s="17"/>
+      <c r="X17" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="21">
+      <c r="A18" s="17">
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17">
         <v>11</v>
       </c>
-      <c r="L18" s="21">
-        <v>6</v>
-      </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21">
+      <c r="L18" s="17">
+        <v>6</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="17">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18" s="28">
         <f t="shared" si="15"/>
         <v>0.916666666666667</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18" s="28">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="17">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="T18" s="21">
+      <c r="T18" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U18" s="34">
+      <c r="U18" s="27">
         <f t="shared" si="19"/>
         <v>0.0833333333333333</v>
       </c>
-      <c r="V18" s="34">
+      <c r="V18" s="27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="21">
+      <c r="A19" s="17">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="17">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="19">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17">
         <v>11</v>
       </c>
-      <c r="L19" s="21">
-        <v>6</v>
-      </c>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21">
+      <c r="L19" s="17">
+        <v>6</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="17">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="28">
         <f t="shared" si="15"/>
         <v>0.916666666666667</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="28">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="17">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U19" s="27">
         <f t="shared" si="19"/>
         <v>0.0833333333333333</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19" s="27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21">
+      <c r="W19" s="17"/>
+      <c r="X19" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="40"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="33"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="17">
+        <v>1</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="17">
         <f t="shared" ref="C21:C25" si="22">$C$8</f>
         <v>12</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="19">
         <f t="shared" ref="D21:D25" si="23">$D$8</f>
         <v>6</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21">
-        <v>12</v>
-      </c>
-      <c r="L21" s="21">
-        <v>6</v>
-      </c>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17">
+        <v>12</v>
+      </c>
+      <c r="L21" s="17">
+        <v>6</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17">
         <f t="shared" ref="O21:O25" si="24">E21+G21+I21+K21+M21</f>
         <v>12</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="17">
         <f t="shared" ref="P21:P25" si="25">F21+H21+J21+L21+N21</f>
         <v>6</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="28">
         <f t="shared" ref="Q21:Q25" si="26">O21/C21</f>
         <v>1</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="28">
         <f t="shared" ref="R21:R25" si="27">P21/D21</f>
         <v>1</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21" s="17">
         <f t="shared" ref="S21:S25" si="28">C21-O21</f>
         <v>0</v>
       </c>
-      <c r="T21" s="21">
+      <c r="T21" s="17">
         <f t="shared" ref="T21:T25" si="29">D21-P21</f>
         <v>0</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21" s="27">
         <f t="shared" ref="U21:U25" si="30">S21/C21</f>
         <v>0</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21" s="27">
         <f t="shared" ref="V21:V25" si="31">T21/D21</f>
         <v>0</v>
       </c>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21">
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="21">
+      <c r="A22" s="17">
         <f t="shared" ref="A22:A25" si="32">A21+1</f>
         <v>2</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="17">
         <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21">
-        <v>12</v>
-      </c>
-      <c r="L22" s="21">
-        <v>6</v>
-      </c>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17">
+        <v>12</v>
+      </c>
+      <c r="L22" s="17">
+        <v>6</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17">
         <f t="shared" si="24"/>
         <v>12</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="17">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="28">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22" s="28">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="17">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22" s="17">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="U22" s="34">
+      <c r="U22" s="27">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V22" s="34">
+      <c r="V22" s="27">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21">
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="21">
+      <c r="A23" s="17">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="17">
         <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="17">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21">
-        <v>12</v>
-      </c>
-      <c r="L23" s="21">
-        <v>6</v>
-      </c>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17">
+        <v>12</v>
+      </c>
+      <c r="L23" s="17">
+        <v>6</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17">
         <f t="shared" si="24"/>
         <v>12</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="17">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23" s="28">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="R23" s="35">
+      <c r="R23" s="28">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23" s="17">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="T23" s="21">
+      <c r="T23" s="17">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="U23" s="34">
+      <c r="U23" s="27">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V23" s="34">
+      <c r="V23" s="27">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21">
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="21">
+      <c r="A24" s="17">
         <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="17">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24" s="28">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="17">
         <f t="shared" si="28"/>
         <v>12</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="17">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="U24" s="34">
+      <c r="U24" s="27">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="V24" s="34">
+      <c r="V24" s="27">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="21"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="17"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="21">
+      <c r="A25" s="17">
         <f t="shared" si="32"/>
         <v>5</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="17">
         <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="17">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21">
-        <v>12</v>
-      </c>
-      <c r="L25" s="21">
-        <v>6</v>
-      </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17">
+        <v>12</v>
+      </c>
+      <c r="L25" s="17">
+        <v>6</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17">
         <f t="shared" si="24"/>
         <v>12</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="17">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="Q25" s="28">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="R25" s="35">
+      <c r="R25" s="28">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25" s="17">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="T25" s="21">
+      <c r="T25" s="17">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="U25" s="34">
+      <c r="U25" s="27">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V25" s="34">
+      <c r="V25" s="27">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21">
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17">
         <v>1</v>
       </c>
     </row>
@@ -3633,1649 +3585,1649 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="27" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="29" t="s">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="27" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="31" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="31"/>
-      <c r="W4" s="27" t="s">
+      <c r="V4" s="24"/>
+      <c r="W4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27" t="s">
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="36"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="29"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="U6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="V6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="W6" s="33" t="s">
+      <c r="W6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="X6" s="33" t="s">
+      <c r="X6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="33" t="s">
+      <c r="Y6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="Z6" s="36"/>
+      <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="37"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="30"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <f>MAX(O8:O14,O16:O19,O21:O25)</f>
         <v>46</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="13">
         <f>MAX(P8:P14,P16:P19,P21:P25)</f>
         <v>33</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <v>11</v>
       </c>
-      <c r="F8" s="13">
-        <v>6</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="F8" s="9">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9">
         <v>11</v>
       </c>
-      <c r="H8" s="13">
-        <v>6</v>
-      </c>
-      <c r="I8" s="13">
-        <v>12</v>
-      </c>
-      <c r="J8" s="13">
-        <v>12</v>
-      </c>
-      <c r="K8" s="13">
+      <c r="H8" s="9">
+        <v>6</v>
+      </c>
+      <c r="I8" s="9">
+        <v>12</v>
+      </c>
+      <c r="J8" s="9">
+        <v>12</v>
+      </c>
+      <c r="K8" s="9">
         <v>10</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="9">
         <v>8</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="13">
         <f t="shared" ref="O8:O14" si="0">E8+G8+I8+K8+M8</f>
         <v>44</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="13">
         <f t="shared" ref="P8:P14" si="1">F8+H8+J8+L8+N8</f>
         <v>32</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="27">
         <f t="shared" ref="Q8:Q14" si="2">O8/C8</f>
         <v>0.956521739130435</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="27">
         <f t="shared" ref="R8:R14" si="3">P8/D8</f>
         <v>0.96969696969697</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="13">
         <f t="shared" ref="S8:S14" si="4">C8-O8</f>
         <v>2</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="13">
         <f t="shared" ref="T8:T14" si="5">D8-P8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="27">
         <f t="shared" ref="U8:U14" si="6">S8/C8</f>
         <v>0.0434782608695652</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="27">
         <f t="shared" ref="V8:V14" si="7">T8/D8</f>
         <v>0.0303030303030303</v>
       </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="38">
+      <c r="W8" s="9"/>
+      <c r="X8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="31">
         <f t="shared" ref="Y8:Y14" si="8">S8-W8-X8</f>
         <v>1</v>
       </c>
-      <c r="Z8" s="21"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <f t="shared" ref="A9:A14" si="9">A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13">
         <f t="shared" ref="C9:C14" si="10">$C$8</f>
         <v>46</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <f t="shared" ref="D9:D14" si="11">$D$8</f>
         <v>33</v>
       </c>
-      <c r="E9" s="13">
-        <v>12</v>
-      </c>
-      <c r="F9" s="13">
-        <v>6</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="E9" s="9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9">
         <v>11</v>
       </c>
-      <c r="H9" s="13">
-        <v>6</v>
-      </c>
-      <c r="I9" s="13">
-        <v>12</v>
-      </c>
-      <c r="J9" s="13">
-        <v>12</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="H9" s="9">
+        <v>6</v>
+      </c>
+      <c r="I9" s="9">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9">
+        <v>12</v>
+      </c>
+      <c r="K9" s="9">
         <v>10</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="9">
         <v>9</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="17">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="13">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="27">
         <f t="shared" si="2"/>
         <v>0.978260869565217</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="27">
         <f t="shared" si="6"/>
         <v>0.0217391304347826</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="38">
+      <c r="W9" s="9"/>
+      <c r="X9" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="13">
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="E10" s="13">
-        <v>12</v>
-      </c>
-      <c r="F10" s="13">
-        <v>6</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="E10" s="9">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9">
         <v>11</v>
       </c>
-      <c r="H10" s="13">
-        <v>6</v>
-      </c>
-      <c r="I10" s="13">
-        <v>12</v>
-      </c>
-      <c r="J10" s="13">
-        <v>12</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="H10" s="9">
+        <v>6</v>
+      </c>
+      <c r="I10" s="9">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9">
+        <v>12</v>
+      </c>
+      <c r="K10" s="9">
         <v>10</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="9">
         <v>7</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="17">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="13">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="27">
         <f t="shared" si="2"/>
         <v>0.978260869565217</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="27">
         <f t="shared" si="3"/>
         <v>0.939393939393939</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="13">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10" s="27">
         <f t="shared" si="6"/>
         <v>0.0217391304347826</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10" s="27">
         <f t="shared" si="7"/>
         <v>0.0606060606060606</v>
       </c>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="38">
+      <c r="W10" s="9"/>
+      <c r="X10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="Z10" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="E11" s="13">
-        <v>12</v>
-      </c>
-      <c r="F11" s="13">
-        <v>6</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="E11" s="9">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9">
         <v>11</v>
       </c>
-      <c r="H11" s="13">
-        <v>6</v>
-      </c>
-      <c r="I11" s="13">
-        <v>12</v>
-      </c>
-      <c r="J11" s="13">
-        <v>12</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="H11" s="9">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9">
+        <v>12</v>
+      </c>
+      <c r="J11" s="9">
+        <v>12</v>
+      </c>
+      <c r="K11" s="9">
         <v>10</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="9">
         <v>8</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="17">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="13">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="27">
         <f t="shared" si="2"/>
         <v>0.978260869565217</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="27">
         <f t="shared" si="3"/>
         <v>0.96969696969697</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="27">
         <f t="shared" si="6"/>
         <v>0.0217391304347826</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11" s="27">
         <f t="shared" si="7"/>
         <v>0.0303030303030303</v>
       </c>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="38">
+      <c r="W11" s="9"/>
+      <c r="X11" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="21">
+      <c r="Z11" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="13">
+      <c r="A12" s="9">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="13">
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="E12" s="13">
-        <v>12</v>
-      </c>
-      <c r="F12" s="13">
-        <v>6</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="E12" s="9">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9">
+        <v>6</v>
+      </c>
+      <c r="G12" s="9">
         <v>11</v>
       </c>
-      <c r="H12" s="13">
-        <v>6</v>
-      </c>
-      <c r="I12" s="13">
-        <v>12</v>
-      </c>
-      <c r="J12" s="13">
-        <v>12</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="H12" s="9">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9">
+        <v>12</v>
+      </c>
+      <c r="J12" s="9">
+        <v>12</v>
+      </c>
+      <c r="K12" s="9">
         <v>10</v>
       </c>
-      <c r="L12" s="13">
-        <v>6</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="17">
+      <c r="L12" s="9">
+        <v>6</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="13">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="27">
         <f t="shared" si="2"/>
         <v>0.978260869565217</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="27">
         <f t="shared" si="3"/>
         <v>0.909090909090909</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="13">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12" s="27">
         <f t="shared" si="6"/>
         <v>0.0217391304347826</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12" s="27">
         <f t="shared" si="7"/>
         <v>0.0909090909090909</v>
       </c>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="38">
+      <c r="W12" s="9"/>
+      <c r="X12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="21">
+      <c r="Z12" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="E13" s="13">
-        <v>12</v>
-      </c>
-      <c r="F13" s="13">
-        <v>6</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="E13" s="9">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9">
+        <v>6</v>
+      </c>
+      <c r="G13" s="9">
         <v>11</v>
       </c>
-      <c r="H13" s="13">
-        <v>6</v>
-      </c>
-      <c r="I13" s="13">
-        <v>12</v>
-      </c>
-      <c r="J13" s="13">
-        <v>12</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="H13" s="9">
+        <v>6</v>
+      </c>
+      <c r="I13" s="9">
+        <v>12</v>
+      </c>
+      <c r="J13" s="9">
+        <v>12</v>
+      </c>
+      <c r="K13" s="9">
         <v>10</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="9">
         <v>8</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="17">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="13">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="27">
         <f t="shared" si="2"/>
         <v>0.978260869565217</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="27">
         <f t="shared" si="3"/>
         <v>0.96969696969697</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U13" s="34">
+      <c r="U13" s="27">
         <f t="shared" si="6"/>
         <v>0.0217391304347826</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13" s="27">
         <f t="shared" si="7"/>
         <v>0.0303030303030303</v>
       </c>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="38">
+      <c r="W13" s="9"/>
+      <c r="X13" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="21">
+      <c r="Z13" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>11</v>
       </c>
-      <c r="F14" s="13">
-        <v>6</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="9">
+        <v>6</v>
+      </c>
+      <c r="G14" s="9">
         <v>10</v>
       </c>
-      <c r="H14" s="13">
-        <v>6</v>
-      </c>
-      <c r="I14" s="13">
-        <v>12</v>
-      </c>
-      <c r="J14" s="13">
-        <v>12</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="H14" s="9">
+        <v>6</v>
+      </c>
+      <c r="I14" s="9">
+        <v>12</v>
+      </c>
+      <c r="J14" s="9">
+        <v>12</v>
+      </c>
+      <c r="K14" s="9">
         <v>10</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="9">
         <v>5</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="17">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="13">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="27">
         <f t="shared" si="2"/>
         <v>0.934782608695652</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="27">
         <f t="shared" si="3"/>
         <v>0.878787878787879</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="13">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="13">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14" s="27">
         <f t="shared" si="6"/>
         <v>0.0652173913043478</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14" s="27">
         <f t="shared" si="7"/>
         <v>0.121212121212121</v>
       </c>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="38">
+      <c r="W14" s="9"/>
+      <c r="X14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="31">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Z14" s="21">
+      <c r="Z14" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="39"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="32"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="21">
-        <v>1</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="17">
+        <v>1</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <f t="shared" ref="C16:C19" si="12">$C$8</f>
         <v>46</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="13">
         <f t="shared" ref="D16:D19" si="13">$D$8</f>
         <v>33</v>
       </c>
-      <c r="E16" s="21">
-        <v>12</v>
-      </c>
-      <c r="F16" s="21">
-        <v>6</v>
-      </c>
-      <c r="G16" s="21">
-        <v>12</v>
-      </c>
-      <c r="H16" s="21">
-        <v>6</v>
-      </c>
-      <c r="I16" s="21">
-        <v>12</v>
-      </c>
-      <c r="J16" s="21">
-        <v>12</v>
-      </c>
-      <c r="K16" s="21">
+      <c r="E16" s="17">
+        <v>12</v>
+      </c>
+      <c r="F16" s="17">
+        <v>6</v>
+      </c>
+      <c r="G16" s="17">
+        <v>12</v>
+      </c>
+      <c r="H16" s="17">
+        <v>6</v>
+      </c>
+      <c r="I16" s="17">
+        <v>12</v>
+      </c>
+      <c r="J16" s="17">
+        <v>12</v>
+      </c>
+      <c r="K16" s="17">
         <v>10</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="17">
         <v>9</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="17">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="13">
         <f t="shared" ref="O16:O19" si="14">E16+G16+I16+K16+M16</f>
         <v>46</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="13">
         <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
         <v>33</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="27">
         <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
         <v>1</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="27">
         <f t="shared" ref="R16:R19" si="17">P16/D16</f>
         <v>1</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="13">
         <f t="shared" ref="S16:S19" si="18">C16-O16</f>
         <v>0</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="13">
         <f t="shared" ref="T16:T19" si="19">D16-P16</f>
         <v>0</v>
       </c>
-      <c r="U16" s="34">
+      <c r="U16" s="27">
         <f t="shared" ref="U16:U19" si="20">S16/C16</f>
         <v>0</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16" s="27">
         <f t="shared" ref="V16:V19" si="21">T16/D16</f>
         <v>0</v>
       </c>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="38">
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="31">
         <f t="shared" ref="Y16:Y19" si="22">S16-W16-X16</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="21">
+      <c r="Z16" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="21">
+      <c r="A17" s="17">
         <f t="shared" ref="A17:A19" si="23">A16+1</f>
         <v>2</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <f t="shared" si="12"/>
         <v>46</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="17">
         <f t="shared" si="13"/>
         <v>33</v>
       </c>
-      <c r="E17" s="21">
-        <v>12</v>
-      </c>
-      <c r="F17" s="21">
-        <v>6</v>
-      </c>
-      <c r="G17" s="21">
-        <v>12</v>
-      </c>
-      <c r="H17" s="21">
-        <v>6</v>
-      </c>
-      <c r="I17" s="21">
-        <v>12</v>
-      </c>
-      <c r="J17" s="21">
-        <v>12</v>
-      </c>
-      <c r="K17" s="21">
+      <c r="E17" s="17">
+        <v>12</v>
+      </c>
+      <c r="F17" s="17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="17">
+        <v>12</v>
+      </c>
+      <c r="H17" s="17">
+        <v>6</v>
+      </c>
+      <c r="I17" s="17">
+        <v>12</v>
+      </c>
+      <c r="J17" s="17">
+        <v>12</v>
+      </c>
+      <c r="K17" s="17">
         <v>10</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="17">
         <v>9</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21">
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17">
         <f t="shared" si="14"/>
         <v>46</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="17">
         <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="28">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="28">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="17">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U17" s="34">
+      <c r="U17" s="27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V17" s="34">
+      <c r="V17" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="38">
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="21">
+      <c r="Z17" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="21">
+      <c r="A18" s="17">
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <f t="shared" si="12"/>
         <v>46</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <f t="shared" si="13"/>
         <v>33</v>
       </c>
-      <c r="E18" s="21">
-        <v>12</v>
-      </c>
-      <c r="F18" s="21">
-        <v>6</v>
-      </c>
-      <c r="G18" s="21">
-        <v>12</v>
-      </c>
-      <c r="H18" s="21">
-        <v>6</v>
-      </c>
-      <c r="I18" s="21">
-        <v>12</v>
-      </c>
-      <c r="J18" s="21">
-        <v>12</v>
-      </c>
-      <c r="K18" s="21">
+      <c r="E18" s="17">
+        <v>12</v>
+      </c>
+      <c r="F18" s="17">
+        <v>6</v>
+      </c>
+      <c r="G18" s="17">
+        <v>12</v>
+      </c>
+      <c r="H18" s="17">
+        <v>6</v>
+      </c>
+      <c r="I18" s="17">
+        <v>12</v>
+      </c>
+      <c r="J18" s="17">
+        <v>12</v>
+      </c>
+      <c r="K18" s="17">
         <v>10</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="17">
         <v>9</v>
       </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21">
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17">
         <f t="shared" si="14"/>
         <v>46</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="17">
         <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18" s="28">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18" s="28">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T18" s="21">
+      <c r="T18" s="17">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U18" s="34">
+      <c r="U18" s="27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V18" s="34">
+      <c r="V18" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="38">
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="21">
+      <c r="Z18" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="21">
+      <c r="A19" s="17">
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="17">
         <f t="shared" si="12"/>
         <v>46</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="19">
         <f t="shared" si="13"/>
         <v>33</v>
       </c>
-      <c r="E19" s="21">
-        <v>12</v>
-      </c>
-      <c r="F19" s="21">
-        <v>6</v>
-      </c>
-      <c r="G19" s="21">
-        <v>12</v>
-      </c>
-      <c r="H19" s="21">
-        <v>6</v>
-      </c>
-      <c r="I19" s="21">
-        <v>12</v>
-      </c>
-      <c r="J19" s="21">
-        <v>12</v>
-      </c>
-      <c r="K19" s="21">
+      <c r="E19" s="17">
+        <v>12</v>
+      </c>
+      <c r="F19" s="17">
+        <v>6</v>
+      </c>
+      <c r="G19" s="17">
+        <v>12</v>
+      </c>
+      <c r="H19" s="17">
+        <v>6</v>
+      </c>
+      <c r="I19" s="17">
+        <v>12</v>
+      </c>
+      <c r="J19" s="17">
+        <v>12</v>
+      </c>
+      <c r="K19" s="17">
         <v>10</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="17">
         <v>9</v>
       </c>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21">
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17">
         <f t="shared" si="14"/>
         <v>46</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="17">
         <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="28">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="28">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="17">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="17">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U19" s="27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="38">
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="21">
+      <c r="Z19" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="40"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="33"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="17">
+        <v>1</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="17">
         <f t="shared" ref="C21:C25" si="24">$C$8</f>
         <v>46</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="19">
         <f t="shared" ref="D21:D25" si="25">$D$8</f>
         <v>33</v>
       </c>
-      <c r="E21" s="21">
-        <v>12</v>
-      </c>
-      <c r="F21" s="21">
-        <v>6</v>
-      </c>
-      <c r="G21" s="21">
-        <v>12</v>
-      </c>
-      <c r="H21" s="21">
-        <v>6</v>
-      </c>
-      <c r="I21" s="21">
-        <v>12</v>
-      </c>
-      <c r="J21" s="21">
-        <v>12</v>
-      </c>
-      <c r="K21" s="21">
+      <c r="E21" s="17">
+        <v>12</v>
+      </c>
+      <c r="F21" s="17">
+        <v>6</v>
+      </c>
+      <c r="G21" s="17">
+        <v>12</v>
+      </c>
+      <c r="H21" s="17">
+        <v>6</v>
+      </c>
+      <c r="I21" s="17">
+        <v>12</v>
+      </c>
+      <c r="J21" s="17">
+        <v>12</v>
+      </c>
+      <c r="K21" s="17">
         <v>10</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="17">
         <v>9</v>
       </c>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21">
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17">
         <f t="shared" ref="O21:O25" si="26">E21+G21+I21+K21+M21</f>
         <v>46</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="17">
         <f t="shared" ref="P21:P25" si="27">F21+H21+J21+L21+N21</f>
         <v>33</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="28">
         <f t="shared" ref="Q21:Q25" si="28">O21/C21</f>
         <v>1</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="28">
         <f t="shared" ref="R21:R25" si="29">P21/D21</f>
         <v>1</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21" s="17">
         <f t="shared" ref="S21:S25" si="30">C21-O21</f>
         <v>0</v>
       </c>
-      <c r="T21" s="21">
+      <c r="T21" s="17">
         <f t="shared" ref="T21:T25" si="31">D21-P21</f>
         <v>0</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21" s="27">
         <f t="shared" ref="U21:U25" si="32">S21/C21</f>
         <v>0</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21" s="27">
         <f t="shared" ref="V21:V25" si="33">T21/D21</f>
         <v>0</v>
       </c>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="38">
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="31">
         <f t="shared" ref="Y21:Y25" si="34">S21-W21-X21</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="21">
+      <c r="Z21" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="21">
+      <c r="A22" s="17">
         <f t="shared" ref="A22:A25" si="35">A21+1</f>
         <v>2</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="17">
         <f t="shared" si="24"/>
         <v>46</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <f t="shared" si="25"/>
         <v>33</v>
       </c>
-      <c r="E22" s="21">
-        <v>12</v>
-      </c>
-      <c r="F22" s="21">
-        <v>6</v>
-      </c>
-      <c r="G22" s="21">
-        <v>12</v>
-      </c>
-      <c r="H22" s="21">
-        <v>6</v>
-      </c>
-      <c r="I22" s="21">
-        <v>12</v>
-      </c>
-      <c r="J22" s="21">
-        <v>12</v>
-      </c>
-      <c r="K22" s="21">
+      <c r="E22" s="17">
+        <v>12</v>
+      </c>
+      <c r="F22" s="17">
+        <v>6</v>
+      </c>
+      <c r="G22" s="17">
+        <v>12</v>
+      </c>
+      <c r="H22" s="17">
+        <v>6</v>
+      </c>
+      <c r="I22" s="17">
+        <v>12</v>
+      </c>
+      <c r="J22" s="17">
+        <v>12</v>
+      </c>
+      <c r="K22" s="17">
         <v>10</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="17">
         <v>9</v>
       </c>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21">
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17">
         <f t="shared" si="26"/>
         <v>46</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="17">
         <f t="shared" si="27"/>
         <v>33</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="28">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22" s="28">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="17">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22" s="17">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="U22" s="34">
+      <c r="U22" s="27">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="V22" s="34">
+      <c r="V22" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="38">
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="31">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="21">
+      <c r="Z22" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="21">
+      <c r="A23" s="17">
         <f t="shared" si="35"/>
         <v>3</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="17">
         <f t="shared" si="24"/>
         <v>46</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="17">
         <f t="shared" si="25"/>
         <v>33</v>
       </c>
-      <c r="E23" s="21">
-        <v>12</v>
-      </c>
-      <c r="F23" s="21">
-        <v>6</v>
-      </c>
-      <c r="G23" s="21">
-        <v>12</v>
-      </c>
-      <c r="H23" s="21">
-        <v>6</v>
-      </c>
-      <c r="I23" s="21">
-        <v>12</v>
-      </c>
-      <c r="J23" s="21">
-        <v>12</v>
-      </c>
-      <c r="K23" s="21">
+      <c r="E23" s="17">
+        <v>12</v>
+      </c>
+      <c r="F23" s="17">
+        <v>6</v>
+      </c>
+      <c r="G23" s="17">
+        <v>12</v>
+      </c>
+      <c r="H23" s="17">
+        <v>6</v>
+      </c>
+      <c r="I23" s="17">
+        <v>12</v>
+      </c>
+      <c r="J23" s="17">
+        <v>12</v>
+      </c>
+      <c r="K23" s="17">
         <v>10</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="17">
         <v>9</v>
       </c>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21">
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17">
         <f t="shared" si="26"/>
         <v>46</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="17">
         <f t="shared" si="27"/>
         <v>33</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23" s="28">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="R23" s="35">
+      <c r="R23" s="28">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23" s="17">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T23" s="21">
+      <c r="T23" s="17">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="U23" s="34">
+      <c r="U23" s="27">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="V23" s="34">
+      <c r="V23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="38">
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="31">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="21">
+      <c r="Z23" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="21">
+      <c r="A24" s="17">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <f t="shared" si="24"/>
         <v>46</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <f t="shared" si="25"/>
         <v>33</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17">
         <v>2</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21">
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="28">
         <f t="shared" si="28"/>
         <v>0.0434782608695652</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24" s="28">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="17">
         <f t="shared" si="30"/>
         <v>44</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="17">
         <f t="shared" si="31"/>
         <v>33</v>
       </c>
-      <c r="U24" s="34">
+      <c r="U24" s="27">
         <f t="shared" si="32"/>
         <v>0.956521739130435</v>
       </c>
-      <c r="V24" s="34">
+      <c r="V24" s="27">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="38">
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="31">
         <f t="shared" si="34"/>
         <v>44</v>
       </c>
-      <c r="Z24" s="21"/>
+      <c r="Z24" s="17"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="21">
+      <c r="A25" s="17">
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="17">
         <f t="shared" si="24"/>
         <v>46</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="17">
         <f t="shared" si="25"/>
         <v>33</v>
       </c>
-      <c r="E25" s="21">
-        <v>12</v>
-      </c>
-      <c r="F25" s="21">
-        <v>6</v>
-      </c>
-      <c r="G25" s="21">
-        <v>12</v>
-      </c>
-      <c r="H25" s="21">
-        <v>6</v>
-      </c>
-      <c r="I25" s="21">
-        <v>12</v>
-      </c>
-      <c r="J25" s="21">
-        <v>12</v>
-      </c>
-      <c r="K25" s="21">
+      <c r="E25" s="17">
+        <v>12</v>
+      </c>
+      <c r="F25" s="17">
+        <v>6</v>
+      </c>
+      <c r="G25" s="17">
+        <v>12</v>
+      </c>
+      <c r="H25" s="17">
+        <v>6</v>
+      </c>
+      <c r="I25" s="17">
+        <v>12</v>
+      </c>
+      <c r="J25" s="17">
+        <v>12</v>
+      </c>
+      <c r="K25" s="17">
         <v>10</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="17">
         <v>9</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21">
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17">
         <f t="shared" si="26"/>
         <v>46</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="17">
         <f t="shared" si="27"/>
         <v>33</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="Q25" s="28">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="R25" s="35">
+      <c r="R25" s="28">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25" s="17">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T25" s="21">
+      <c r="T25" s="17">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="U25" s="34">
+      <c r="U25" s="27">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="V25" s="34">
+      <c r="V25" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="38">
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="31">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="21">
+      <c r="Z25" s="17">
         <v>2</v>
       </c>
     </row>
@@ -5314,7 +5266,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -5352,1440 +5304,1492 @@
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="26" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="28" t="s">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="26" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="30" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="31"/>
-      <c r="W4" s="26" t="s">
+      <c r="V4" s="24"/>
+      <c r="W4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="26" t="s">
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="61" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="62" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="61" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="61" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="36"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="29"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="U6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="V6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="W6" s="33" t="s">
+      <c r="W6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="X6" s="33" t="s">
+      <c r="X6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="33" t="s">
+      <c r="Y6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="Z6" s="36"/>
+      <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="37"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="30"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <f>MAX(O8:O14,O16:O19,O21:O25)</f>
-        <v>12</v>
-      </c>
-      <c r="D8" s="17">
+        <v>24</v>
+      </c>
+      <c r="D8" s="13">
         <f>MAX(P8:P14,P16:P19,P21:P25)</f>
-        <v>12</v>
-      </c>
-      <c r="E8" s="13">
-        <v>12</v>
-      </c>
-      <c r="F8" s="13">
-        <v>12</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="17">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9">
+        <v>12</v>
+      </c>
+      <c r="H8" s="9">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="13">
         <f t="shared" ref="O8:O14" si="0">E8+G8+I8+K8+M8</f>
-        <v>12</v>
-      </c>
-      <c r="P8" s="17">
+        <v>24</v>
+      </c>
+      <c r="P8" s="13">
         <f t="shared" ref="P8:P14" si="1">F8+H8+J8+L8+N8</f>
-        <v>12</v>
-      </c>
-      <c r="Q8" s="34">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="27">
         <f t="shared" ref="Q8:Q14" si="2">O8/C8</f>
         <v>1</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="27">
         <f t="shared" ref="R8:R14" si="3">P8/D8</f>
         <v>1</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="13">
         <f t="shared" ref="S8:S14" si="4">C8-O8</f>
         <v>0</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="13">
         <f t="shared" ref="T8:T14" si="5">D8-P8</f>
         <v>0</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="27">
         <f t="shared" ref="U8:U14" si="6">S8/C8</f>
         <v>0</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="27">
         <f t="shared" ref="V8:V14" si="7">T8/D8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="38">
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="31">
         <f t="shared" ref="Y8:Y14" si="8">S8+T8-W8-X8</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="21"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <f t="shared" ref="A9:A14" si="9">A8+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13">
         <f t="shared" ref="C9:C14" si="10">$C$8</f>
-        <v>12</v>
-      </c>
-      <c r="D9" s="17">
+        <v>24</v>
+      </c>
+      <c r="D9" s="13">
         <f t="shared" ref="D9:D14" si="11">$D$8</f>
-        <v>12</v>
-      </c>
-      <c r="E9" s="13">
-        <v>12</v>
-      </c>
-      <c r="F9" s="13">
-        <v>12</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="17">
+        <v>24</v>
+      </c>
+      <c r="E9" s="9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9">
+        <v>12</v>
+      </c>
+      <c r="H9" s="9">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="13">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="P9" s="17">
+        <v>24</v>
+      </c>
+      <c r="P9" s="13">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="Q9" s="34">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="38">
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="D10" s="17">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="E10" s="13">
-        <v>12</v>
-      </c>
-      <c r="F10" s="13">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9">
         <v>9</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="17">
+      <c r="G10" s="9">
+        <v>12</v>
+      </c>
+      <c r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="13">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="P10" s="17">
+        <v>24</v>
+      </c>
+      <c r="P10" s="13">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Q10" s="34">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="27">
         <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="S10" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="S10" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="13">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10" s="27">
         <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="38">
+        <v>0.125</v>
+      </c>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="31">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="Z10" s="21">
-        <v>1</v>
+      <c r="Z10" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="D11" s="17">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="E11" s="13">
-        <v>12</v>
-      </c>
-      <c r="F11" s="13">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9">
         <v>8</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="17">
+      <c r="G11" s="9">
+        <v>9</v>
+      </c>
+      <c r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="13">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="P11" s="17">
+        <v>21</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="Q11" s="34">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="27">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R11" s="34">
+        <v>0.875</v>
+      </c>
+      <c r="R11" s="27">
         <f t="shared" si="3"/>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="S11" s="17">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="S11" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="17">
+        <v>3</v>
+      </c>
+      <c r="T11" s="13">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="34">
+        <v>0.125</v>
+      </c>
+      <c r="V11" s="27">
         <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="38">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="31">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="Z11" s="21">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="13">
+      <c r="A12" s="9">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="D12" s="17">
+        <v>24</v>
+      </c>
+      <c r="D12" s="13">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="E12" s="13">
-        <v>12</v>
-      </c>
-      <c r="F12" s="13">
+        <v>24</v>
+      </c>
+      <c r="E12" s="9">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9">
         <v>9</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="17">
+      <c r="G12" s="9">
+        <v>12</v>
+      </c>
+      <c r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="13">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="P12" s="17">
+        <v>24</v>
+      </c>
+      <c r="P12" s="13">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Q12" s="34">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="27">
         <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="S12" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="S12" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="13">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12" s="27">
         <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="38">
+        <v>0.125</v>
+      </c>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="31">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="Z12" s="21">
+      <c r="Z12" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="D13" s="17">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="E13" s="13">
-        <v>12</v>
-      </c>
-      <c r="F13" s="13">
+        <v>24</v>
+      </c>
+      <c r="E13" s="9">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9">
         <v>11</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="17">
+      <c r="G13" s="9">
+        <v>12</v>
+      </c>
+      <c r="H13" s="9">
+        <v>10</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="13">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="P13" s="17">
+        <v>24</v>
+      </c>
+      <c r="P13" s="13">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="Q13" s="34">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="27">
         <f t="shared" si="3"/>
-        <v>0.916666666666667</v>
-      </c>
-      <c r="S13" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="S13" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="13">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U13" s="34">
+        <v>3</v>
+      </c>
+      <c r="U13" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13" s="27">
         <f t="shared" si="7"/>
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="38">
+        <v>0.125</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="31">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z13" s="21">
         <v>3</v>
       </c>
+      <c r="Z13" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="D14" s="17">
+        <v>24</v>
+      </c>
+      <c r="D14" s="13">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="E14" s="13">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9">
         <v>10</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <v>8</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="17">
+      <c r="G14" s="9">
+        <v>7</v>
+      </c>
+      <c r="H14" s="9">
+        <v>11</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P14" s="17">
+        <v>17</v>
+      </c>
+      <c r="P14" s="13">
         <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="Q14" s="27">
+        <f t="shared" si="2"/>
+        <v>0.708333333333333</v>
+      </c>
+      <c r="R14" s="27">
+        <f t="shared" si="3"/>
+        <v>0.791666666666667</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="T14" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="U14" s="27">
+        <f t="shared" si="6"/>
+        <v>0.291666666666667</v>
+      </c>
+      <c r="V14" s="27">
+        <f t="shared" si="7"/>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="W14" s="9">
+        <v>1</v>
+      </c>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="31">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="32"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="17">
+        <v>1</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" ref="C16:C19" si="12">$C$8</f>
+        <v>24</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" ref="D16:D19" si="13">$D$8</f>
+        <v>24</v>
+      </c>
+      <c r="E16" s="17">
+        <v>12</v>
+      </c>
+      <c r="F16" s="17">
+        <v>12</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="13">
+        <f t="shared" ref="O16:O19" si="14">E16+G16+I16+K16+M16</f>
+        <v>12</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
+        <v>12</v>
+      </c>
+      <c r="Q16" s="27">
+        <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
+        <v>0.5</v>
+      </c>
+      <c r="R16" s="27">
+        <f t="shared" ref="R16:R19" si="17">P16/D16</f>
+        <v>0.5</v>
+      </c>
+      <c r="S16" s="13">
+        <f t="shared" ref="S16:S19" si="18">C16-O16</f>
+        <v>12</v>
+      </c>
+      <c r="T16" s="13">
+        <f t="shared" ref="T16:T19" si="19">D16-P16</f>
+        <v>12</v>
+      </c>
+      <c r="U16" s="27">
+        <f t="shared" ref="U16:U19" si="20">S16/C16</f>
+        <v>0.5</v>
+      </c>
+      <c r="V16" s="27">
+        <f t="shared" ref="V16:V19" si="21">T16/D16</f>
+        <v>0.5</v>
+      </c>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="31">
+        <f t="shared" ref="Y16:Y19" si="22">S16+T16-W16-X16</f>
+        <v>24</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="17">
+        <f t="shared" ref="A17:A19" si="23">A16+1</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="E17" s="17">
+        <v>9</v>
+      </c>
+      <c r="F17" s="17">
         <v>8</v>
       </c>
-      <c r="Q14" s="34">
-        <f t="shared" si="2"/>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="R14" s="34">
-        <f t="shared" si="3"/>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="S14" s="17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="T14" s="17">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="U14" s="34">
-        <f t="shared" si="6"/>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="V14" s="34">
-        <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="38">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Z14" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="39"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="21">
-        <v>1</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="17">
-        <f t="shared" ref="C16:C19" si="12">$C$8</f>
-        <v>12</v>
-      </c>
-      <c r="D16" s="17">
-        <f t="shared" ref="D16:D19" si="13">$D$8</f>
-        <v>12</v>
-      </c>
-      <c r="E16" s="21">
-        <v>12</v>
-      </c>
-      <c r="F16" s="21">
-        <v>12</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="17">
-        <f t="shared" ref="O16:O19" si="14">E16+G16+I16+K16+M16</f>
-        <v>12</v>
-      </c>
-      <c r="P16" s="17">
-        <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
-        <v>12</v>
-      </c>
-      <c r="Q16" s="34">
-        <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
-        <v>1</v>
-      </c>
-      <c r="R16" s="34">
-        <f t="shared" ref="R16:R19" si="17">P16/D16</f>
-        <v>1</v>
-      </c>
-      <c r="S16" s="17">
-        <f t="shared" ref="S16:S19" si="18">C16-O16</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="17">
-        <f t="shared" ref="T16:T19" si="19">D16-P16</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="34">
-        <f t="shared" ref="U16:U19" si="20">S16/C16</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="34">
-        <f t="shared" ref="V16:V19" si="21">T16/D16</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="38">
-        <f>S16+T16-W16-X16</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="21">
-        <f t="shared" ref="A17:A19" si="22">A16+1</f>
-        <v>2</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="21">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="D17" s="21">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="E17" s="21">
-        <v>9</v>
-      </c>
-      <c r="F17" s="21">
-        <v>8</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="17">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="28">
         <f t="shared" si="16"/>
-        <v>0.75</v>
-      </c>
-      <c r="R17" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="R17" s="28">
         <f t="shared" si="17"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="U17" s="27">
+        <f t="shared" si="20"/>
+        <v>0.625</v>
+      </c>
+      <c r="V17" s="27">
+        <f t="shared" si="21"/>
         <v>0.666666666666667</v>
       </c>
-      <c r="S17" s="21">
+      <c r="W17" s="17">
+        <v>7</v>
+      </c>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="31">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="Z17" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="17">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="17">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="E18" s="17">
+        <v>12</v>
+      </c>
+      <c r="F18" s="17">
+        <v>12</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="Q18" s="28">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="R18" s="28">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="S18" s="17">
         <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="T17" s="21">
+        <v>12</v>
+      </c>
+      <c r="T18" s="17">
         <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="U18" s="27">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="V18" s="27">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="31">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="Z18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="17">
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="U17" s="34">
-        <f t="shared" si="20"/>
-        <v>0.25</v>
-      </c>
-      <c r="V17" s="34">
-        <f t="shared" si="21"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="W17" s="21">
-        <v>7</v>
-      </c>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="38">
-        <f>S17+T17-W17-X17</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="21">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="21">
+      <c r="B19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="17">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="D18" s="21">
+        <v>24</v>
+      </c>
+      <c r="D19" s="19">
         <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="E18" s="21">
-        <v>12</v>
-      </c>
-      <c r="F18" s="21">
-        <v>12</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="P18" s="21">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="Q18" s="35">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="35">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="21">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="21">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="34">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="34">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="38">
-        <f>S18+T18-W18-X18</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="21">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="21">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="D19" s="23">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="E19" s="21">
+        <v>24</v>
+      </c>
+      <c r="E19" s="17">
         <v>9</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="17">
         <v>10</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="17">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="28">
         <f t="shared" si="16"/>
-        <v>0.75</v>
-      </c>
-      <c r="R19" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="R19" s="28">
         <f t="shared" si="17"/>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="S19" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="S19" s="17">
         <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="U19" s="27">
+        <f t="shared" si="20"/>
+        <v>0.625</v>
+      </c>
+      <c r="V19" s="27">
+        <f t="shared" si="21"/>
+        <v>0.583333333333333</v>
+      </c>
+      <c r="W19" s="17">
+        <v>4</v>
+      </c>
+      <c r="X19" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="31">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="Z19" s="17">
         <v>3</v>
       </c>
-      <c r="T19" s="21">
-        <f t="shared" si="19"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="33"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="17">
+        <v>1</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="17">
+        <f t="shared" ref="C21:C25" si="24">$C$8</f>
+        <v>24</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" ref="D21:D25" si="25">$D$8</f>
+        <v>24</v>
+      </c>
+      <c r="E21" s="17">
+        <v>12</v>
+      </c>
+      <c r="F21" s="17">
+        <v>12</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17">
+        <f t="shared" ref="O21:O25" si="26">E21+G21+I21+K21+M21</f>
+        <v>12</v>
+      </c>
+      <c r="P21" s="17">
+        <f t="shared" ref="P21:P25" si="27">F21+H21+J21+L21+N21</f>
+        <v>12</v>
+      </c>
+      <c r="Q21" s="28">
+        <f t="shared" ref="Q21:Q25" si="28">O21/C21</f>
+        <v>0.5</v>
+      </c>
+      <c r="R21" s="28">
+        <f t="shared" ref="R21:R25" si="29">P21/D21</f>
+        <v>0.5</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" ref="S21:S25" si="30">C21-O21</f>
+        <v>12</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" ref="T21:T25" si="31">D21-P21</f>
+        <v>12</v>
+      </c>
+      <c r="U21" s="27">
+        <f t="shared" ref="U21:U25" si="32">S21/C21</f>
+        <v>0.5</v>
+      </c>
+      <c r="V21" s="27">
+        <f t="shared" ref="V21:V25" si="33">T21/D21</f>
+        <v>0.5</v>
+      </c>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="31">
+        <f t="shared" ref="Y21:Y25" si="34">S21+T21-W21-X21</f>
+        <v>24</v>
+      </c>
+      <c r="Z21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="17">
+        <f t="shared" ref="A22:A25" si="35">A21+1</f>
         <v>2</v>
       </c>
-      <c r="U19" s="34">
-        <f t="shared" si="20"/>
-        <v>0.25</v>
-      </c>
-      <c r="V19" s="34">
-        <f t="shared" si="21"/>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="W19" s="21">
+      <c r="B22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="17">
+        <f t="shared" si="24"/>
+        <v>24</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="E22" s="17">
+        <v>11</v>
+      </c>
+      <c r="F22" s="17">
+        <v>12</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="17">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Q22" s="28">
+        <f t="shared" si="28"/>
+        <v>0.458333333333333</v>
+      </c>
+      <c r="R22" s="28">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="S22" s="17">
+        <f t="shared" si="30"/>
+        <v>13</v>
+      </c>
+      <c r="T22" s="17">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="U22" s="27">
+        <f t="shared" si="32"/>
+        <v>0.541666666666667</v>
+      </c>
+      <c r="V22" s="27">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="31">
+        <f t="shared" si="34"/>
+        <v>25</v>
+      </c>
+      <c r="Z22" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="17">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" si="24"/>
+        <v>24</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="E23" s="17">
+        <v>12</v>
+      </c>
+      <c r="F23" s="17">
+        <v>12</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Q23" s="28">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="R23" s="28">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="S23" s="17">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="T23" s="17">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="U23" s="27">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="V23" s="27">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="31">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="Z23" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="17">
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="X19" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="38">
-        <f>S19+T19-W19-X19</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="40"/>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="21">
-        <f t="shared" ref="C21:C25" si="23">$C$8</f>
-        <v>12</v>
-      </c>
-      <c r="D21" s="23">
-        <f t="shared" ref="D21:D25" si="24">$D$8</f>
-        <v>12</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21">
-        <f t="shared" ref="O21:O25" si="25">E21+G21+I21+K21+M21</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="21">
-        <f t="shared" ref="P21:P25" si="26">F21+H21+J21+L21+N21</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="35">
-        <f t="shared" ref="Q21:Q25" si="27">O21/C21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="35">
-        <f t="shared" ref="R21:R25" si="28">P21/D21</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
-        <f t="shared" ref="S21:S25" si="29">C21-O21</f>
-        <v>12</v>
-      </c>
-      <c r="T21" s="21">
-        <f t="shared" ref="T21:T25" si="30">D21-P21</f>
-        <v>12</v>
-      </c>
-      <c r="U21" s="34">
-        <f t="shared" ref="U21:U25" si="31">S21/C21</f>
-        <v>1</v>
-      </c>
-      <c r="V21" s="34">
-        <f t="shared" ref="V21:V25" si="32">T21/D21</f>
-        <v>1</v>
-      </c>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="38">
-        <f>S21+T21-W21-X21</f>
+      <c r="B24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="17">
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
-      <c r="Z21" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="21">
-        <f t="shared" ref="A22:A25" si="33">A21+1</f>
-        <v>2</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="21">
-        <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="D24" s="17">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="E24" s="17">
+        <v>12</v>
+      </c>
+      <c r="F24" s="17">
+        <v>12</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="P24" s="17">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Q24" s="28">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="28">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="S24" s="17">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="U24" s="27">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="V24" s="27">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="31">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="Z24" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="17">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="17">
         <f t="shared" si="24"/>
-        <v>12</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21">
+        <v>24</v>
+      </c>
+      <c r="D25" s="17">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="21">
+        <v>24</v>
+      </c>
+      <c r="E25" s="17">
+        <v>12</v>
+      </c>
+      <c r="F25" s="17">
+        <v>12</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="35">
+        <v>12</v>
+      </c>
+      <c r="P25" s="17">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="35">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="28">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="R25" s="28">
         <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T22" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="S25" s="17">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
-      <c r="U22" s="34">
+      <c r="T25" s="17">
         <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="V22" s="34">
+        <v>12</v>
+      </c>
+      <c r="U25" s="27">
         <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="38">
-        <f>S22+T22-W22-X22</f>
+        <v>0.5</v>
+      </c>
+      <c r="V25" s="27">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="31">
+        <f t="shared" si="34"/>
         <v>24</v>
       </c>
-      <c r="Z22" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="21">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="21">
-        <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="D23" s="21">
-        <f t="shared" si="24"/>
-        <v>12</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="21">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="35">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="35">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="21">
-        <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T23" s="21">
-        <f t="shared" si="30"/>
-        <v>12</v>
-      </c>
-      <c r="U23" s="34">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="V23" s="34">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="38">
-        <f>S23+T23-W23-X23</f>
-        <v>24</v>
-      </c>
-      <c r="Z23" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="21">
-        <f t="shared" si="33"/>
-        <v>4</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="21">
-        <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="D24" s="21">
-        <f t="shared" si="24"/>
-        <v>12</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="21">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="35">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="35">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="21">
-        <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T24" s="21">
-        <f t="shared" si="30"/>
-        <v>12</v>
-      </c>
-      <c r="U24" s="34">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="V24" s="34">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="38">
-        <f>S24+T24-W24-X24</f>
-        <v>24</v>
-      </c>
-      <c r="Z24" s="21"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="21">
-        <f t="shared" si="33"/>
-        <v>5</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="21">
-        <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="D25" s="21">
-        <f t="shared" si="24"/>
-        <v>12</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="21">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="35">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="35">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="21">
-        <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="T25" s="21">
-        <f t="shared" si="30"/>
-        <v>12</v>
-      </c>
-      <c r="U25" s="34">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="V25" s="34">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="38">
-        <f>S25+T25-W25-X25</f>
-        <v>24</v>
-      </c>
-      <c r="Z25" s="21">
+      <c r="Z25" s="17">
         <v>2</v>
       </c>
     </row>

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>MADRASAH BAITUL IZZAH</t>
   </si>
@@ -195,6 +195,9 @@
     <t>September 2020</t>
   </si>
   <si>
+    <t>Oktober 2020</t>
+  </si>
+  <si>
     <t>Tanggal</t>
   </si>
   <si>
@@ -212,17 +215,23 @@
   <si>
     <t>26 - 31</t>
   </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -289,22 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -313,7 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,6 +317,22 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,6 +366,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -374,24 +390,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,24 +412,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,13 +449,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,25 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,61 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,61 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +730,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -736,11 +754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,162 +812,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,7 +1054,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5266,7 +5275,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -5332,7 +5341,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5372,7 +5381,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -5414,23 +5423,23 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="22"/>
@@ -5450,64 +5459,64 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="U6" s="25" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="V6" s="25" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="W6" s="26" t="s">
         <v>55</v>
@@ -5559,11 +5568,11 @@
       </c>
       <c r="C8" s="13">
         <f>MAX(O8:O14,O16:O19,O21:O25)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8" s="13">
         <f>MAX(P8:P14,P16:P19,P21:P25)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E8" s="9">
         <v>12</v>
@@ -5577,19 +5586,23 @@
       <c r="H8" s="9">
         <v>12</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="9">
+        <v>12</v>
+      </c>
+      <c r="J8" s="9">
+        <v>12</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="13">
         <f t="shared" ref="O8:O14" si="0">E8+G8+I8+K8+M8</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" ref="P8:P14" si="1">F8+H8+J8+L8+N8</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="27">
         <f t="shared" ref="Q8:Q14" si="2">O8/C8</f>
@@ -5633,11 +5646,11 @@
       </c>
       <c r="C9" s="13">
         <f t="shared" ref="C9:C14" si="10">$C$8</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D9" s="13">
         <f t="shared" ref="D9:D14" si="11">$D$8</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E9" s="9">
         <v>12</v>
@@ -5651,19 +5664,23 @@
       <c r="H9" s="9">
         <v>12</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="9">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9">
+        <v>12</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="27">
         <f t="shared" si="2"/>
@@ -5709,11 +5726,11 @@
       </c>
       <c r="C10" s="13">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9">
         <v>12</v>
@@ -5727,31 +5744,35 @@
       <c r="H10" s="9">
         <v>12</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="9">
+        <v>11</v>
+      </c>
+      <c r="J10" s="9">
+        <v>12</v>
+      </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="27">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="R10" s="27">
         <f t="shared" si="3"/>
-        <v>0.875</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="S10" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="13">
         <f t="shared" si="5"/>
@@ -5759,17 +5780,17 @@
       </c>
       <c r="U10" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="V10" s="27">
         <f t="shared" si="7"/>
-        <v>0.125</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="31">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="17">
         <v>2</v>
@@ -5785,11 +5806,11 @@
       </c>
       <c r="C11" s="13">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E11" s="9">
         <v>12</v>
@@ -5803,52 +5824,56 @@
       <c r="H11" s="9">
         <v>12</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="9">
+        <v>11</v>
+      </c>
+      <c r="J11" s="9">
+        <v>11</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="13">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="27">
         <f t="shared" si="2"/>
-        <v>0.875</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="R11" s="27">
         <f t="shared" si="3"/>
-        <v>0.833333333333333</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="S11" s="13">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T11" s="13">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U11" s="27">
         <f t="shared" si="6"/>
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="V11" s="27">
         <f t="shared" si="7"/>
-        <v>0.166666666666667</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="31">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z11" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -5861,11 +5886,11 @@
       </c>
       <c r="C12" s="13">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E12" s="9">
         <v>12</v>
@@ -5879,19 +5904,23 @@
       <c r="H12" s="9">
         <v>12</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="9">
+        <v>12</v>
+      </c>
+      <c r="J12" s="9">
+        <v>12</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="27">
         <f t="shared" si="2"/>
@@ -5899,7 +5928,7 @@
       </c>
       <c r="R12" s="27">
         <f t="shared" si="3"/>
-        <v>0.875</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="S12" s="13">
         <f t="shared" si="4"/>
@@ -5915,7 +5944,7 @@
       </c>
       <c r="V12" s="27">
         <f t="shared" si="7"/>
-        <v>0.125</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -5937,11 +5966,11 @@
       </c>
       <c r="C13" s="13">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E13" s="9">
         <v>12</v>
@@ -5955,19 +5984,23 @@
       <c r="H13" s="9">
         <v>10</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="9">
+        <v>12</v>
+      </c>
+      <c r="J13" s="9">
+        <v>10</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="27">
         <f t="shared" si="2"/>
@@ -5975,7 +6008,7 @@
       </c>
       <c r="R13" s="27">
         <f t="shared" si="3"/>
-        <v>0.875</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="S13" s="13">
         <f t="shared" si="4"/>
@@ -5983,7 +6016,7 @@
       </c>
       <c r="T13" s="13">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U13" s="27">
         <f t="shared" si="6"/>
@@ -5991,16 +6024,16 @@
       </c>
       <c r="V13" s="27">
         <f t="shared" si="7"/>
-        <v>0.125</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="31">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z13" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -6013,11 +6046,11 @@
       </c>
       <c r="C14" s="13">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E14" s="9">
         <v>10</v>
@@ -6026,36 +6059,40 @@
         <v>8</v>
       </c>
       <c r="G14" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="9">
         <v>11</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="9">
+        <v>12</v>
+      </c>
+      <c r="J14" s="9">
+        <v>12</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="13">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="27">
         <f t="shared" si="2"/>
-        <v>0.708333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="R14" s="27">
         <f t="shared" si="3"/>
-        <v>0.791666666666667</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="S14" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T14" s="13">
         <f t="shared" si="5"/>
@@ -6063,11 +6100,11 @@
       </c>
       <c r="U14" s="27">
         <f t="shared" si="6"/>
-        <v>0.291666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="V14" s="27">
         <f t="shared" si="7"/>
-        <v>0.208333333333333</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="W14" s="9">
         <v>1</v>
@@ -6075,7 +6112,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="31">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z14" s="17">
         <v>3</v>
@@ -6120,11 +6157,11 @@
       </c>
       <c r="C16" s="13">
         <f t="shared" ref="C16:C19" si="12">$C$8</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D16" s="13">
         <f t="shared" ref="D16:D19" si="13">$D$8</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E16" s="17">
         <v>12</v>
@@ -6132,8 +6169,12 @@
       <c r="F16" s="17">
         <v>12</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="17">
+        <v>12</v>
+      </c>
+      <c r="H16" s="17">
+        <v>12</v>
+      </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -6142,19 +6183,19 @@
       <c r="N16" s="17"/>
       <c r="O16" s="13">
         <f t="shared" ref="O16:O19" si="14">E16+G16+I16+K16+M16</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="27">
         <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R16" s="27">
         <f t="shared" ref="R16:R19" si="17">P16/D16</f>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S16" s="13">
         <f t="shared" ref="S16:S19" si="18">C16-O16</f>
@@ -6166,11 +6207,11 @@
       </c>
       <c r="U16" s="27">
         <f t="shared" ref="U16:U19" si="20">S16/C16</f>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V16" s="27">
         <f t="shared" ref="V16:V19" si="21">T16/D16</f>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
@@ -6179,7 +6220,7 @@
         <v>24</v>
       </c>
       <c r="Z16" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -6192,11 +6233,11 @@
       </c>
       <c r="C17" s="17">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E17" s="17">
         <v>9</v>
@@ -6204,8 +6245,12 @@
       <c r="F17" s="17">
         <v>8</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="G17" s="17">
+        <v>12</v>
+      </c>
+      <c r="H17" s="17">
+        <v>12</v>
+      </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
@@ -6214,19 +6259,19 @@
       <c r="N17" s="17"/>
       <c r="O17" s="17">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="P17" s="17">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="28">
         <f t="shared" si="16"/>
-        <v>0.375</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="R17" s="28">
         <f t="shared" si="17"/>
-        <v>0.333333333333333</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="S17" s="17">
         <f t="shared" si="18"/>
@@ -6238,11 +6283,11 @@
       </c>
       <c r="U17" s="27">
         <f t="shared" si="20"/>
-        <v>0.625</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="V17" s="27">
         <f t="shared" si="21"/>
-        <v>0.666666666666667</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="W17" s="17">
         <v>7</v>
@@ -6266,11 +6311,11 @@
       </c>
       <c r="C18" s="17">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E18" s="17">
         <v>12</v>
@@ -6278,8 +6323,12 @@
       <c r="F18" s="17">
         <v>12</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="G18" s="17">
+        <v>12</v>
+      </c>
+      <c r="H18" s="17">
+        <v>12</v>
+      </c>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
@@ -6288,19 +6337,19 @@
       <c r="N18" s="17"/>
       <c r="O18" s="17">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P18" s="17">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="28">
         <f t="shared" si="16"/>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R18" s="28">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S18" s="17">
         <f t="shared" si="18"/>
@@ -6312,11 +6361,11 @@
       </c>
       <c r="U18" s="27">
         <f t="shared" si="20"/>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V18" s="27">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
@@ -6338,11 +6387,11 @@
       </c>
       <c r="C19" s="17">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D19" s="19">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E19" s="17">
         <v>9</v>
@@ -6350,8 +6399,12 @@
       <c r="F19" s="17">
         <v>10</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="G19" s="17">
+        <v>12</v>
+      </c>
+      <c r="H19" s="17">
+        <v>12</v>
+      </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -6360,19 +6413,19 @@
       <c r="N19" s="17"/>
       <c r="O19" s="17">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="P19" s="17">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="28">
         <f t="shared" si="16"/>
-        <v>0.375</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="R19" s="28">
         <f t="shared" si="17"/>
-        <v>0.416666666666667</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="S19" s="17">
         <f t="shared" si="18"/>
@@ -6384,11 +6437,11 @@
       </c>
       <c r="U19" s="27">
         <f t="shared" si="20"/>
-        <v>0.625</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="V19" s="27">
         <f t="shared" si="21"/>
-        <v>0.583333333333333</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="W19" s="17">
         <v>4</v>
@@ -6443,11 +6496,11 @@
       </c>
       <c r="C21" s="17">
         <f t="shared" ref="C21:C25" si="24">$C$8</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D21" s="19">
         <f t="shared" ref="D21:D25" si="25">$D$8</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E21" s="17">
         <v>12</v>
@@ -6455,8 +6508,12 @@
       <c r="F21" s="17">
         <v>12</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="G21" s="17">
+        <v>12</v>
+      </c>
+      <c r="H21" s="17">
+        <v>12</v>
+      </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -6465,19 +6522,19 @@
       <c r="N21" s="17"/>
       <c r="O21" s="17">
         <f t="shared" ref="O21:O25" si="26">E21+G21+I21+K21+M21</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P21" s="17">
         <f t="shared" ref="P21:P25" si="27">F21+H21+J21+L21+N21</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="28">
         <f t="shared" ref="Q21:Q25" si="28">O21/C21</f>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R21" s="28">
         <f t="shared" ref="R21:R25" si="29">P21/D21</f>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S21" s="17">
         <f t="shared" ref="S21:S25" si="30">C21-O21</f>
@@ -6489,11 +6546,11 @@
       </c>
       <c r="U21" s="27">
         <f t="shared" ref="U21:U25" si="32">S21/C21</f>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V21" s="27">
         <f t="shared" ref="V21:V25" si="33">T21/D21</f>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
@@ -6515,11 +6572,11 @@
       </c>
       <c r="C22" s="17">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="25"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E22" s="17">
         <v>11</v>
@@ -6527,8 +6584,12 @@
       <c r="F22" s="17">
         <v>12</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="G22" s="17">
+        <v>11</v>
+      </c>
+      <c r="H22" s="17">
+        <v>12</v>
+      </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
@@ -6537,23 +6598,23 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17">
         <f t="shared" si="26"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P22" s="17">
         <f t="shared" si="27"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="28">
         <f t="shared" si="28"/>
-        <v>0.458333333333333</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="R22" s="28">
         <f t="shared" si="29"/>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S22" s="17">
         <f t="shared" si="30"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T22" s="17">
         <f t="shared" si="31"/>
@@ -6561,17 +6622,17 @@
       </c>
       <c r="U22" s="27">
         <f t="shared" si="32"/>
-        <v>0.541666666666667</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="V22" s="27">
         <f t="shared" si="33"/>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="31">
         <f t="shared" si="34"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z22" s="17">
         <v>5</v>
@@ -6587,11 +6648,11 @@
       </c>
       <c r="C23" s="17">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="25"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E23" s="17">
         <v>12</v>
@@ -6599,8 +6660,12 @@
       <c r="F23" s="17">
         <v>12</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="G23" s="17">
+        <v>12</v>
+      </c>
+      <c r="H23" s="17">
+        <v>12</v>
+      </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
@@ -6609,19 +6674,19 @@
       <c r="N23" s="17"/>
       <c r="O23" s="17">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P23" s="17">
         <f t="shared" si="27"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="28">
         <f t="shared" si="28"/>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R23" s="28">
         <f t="shared" si="29"/>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S23" s="17">
         <f t="shared" si="30"/>
@@ -6633,11 +6698,11 @@
       </c>
       <c r="U23" s="27">
         <f t="shared" si="32"/>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V23" s="27">
         <f t="shared" si="33"/>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
@@ -6659,11 +6724,11 @@
       </c>
       <c r="C24" s="17">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="25"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E24" s="17">
         <v>12</v>
@@ -6671,8 +6736,12 @@
       <c r="F24" s="17">
         <v>12</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="G24" s="17">
+        <v>12</v>
+      </c>
+      <c r="H24" s="17">
+        <v>12</v>
+      </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
@@ -6681,19 +6750,19 @@
       <c r="N24" s="17"/>
       <c r="O24" s="17">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P24" s="17">
         <f t="shared" si="27"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="28">
         <f t="shared" si="28"/>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R24" s="28">
         <f t="shared" si="29"/>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S24" s="17">
         <f t="shared" si="30"/>
@@ -6705,11 +6774,11 @@
       </c>
       <c r="U24" s="27">
         <f t="shared" si="32"/>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V24" s="27">
         <f t="shared" si="33"/>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
@@ -6731,11 +6800,11 @@
       </c>
       <c r="C25" s="17">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="25"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E25" s="17">
         <v>12</v>
@@ -6743,8 +6812,12 @@
       <c r="F25" s="17">
         <v>12</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="G25" s="17">
+        <v>12</v>
+      </c>
+      <c r="H25" s="17">
+        <v>12</v>
+      </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -6753,19 +6826,19 @@
       <c r="N25" s="17"/>
       <c r="O25" s="17">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P25" s="17">
         <f t="shared" si="27"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q25" s="28">
         <f t="shared" si="28"/>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R25" s="28">
         <f t="shared" si="29"/>
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S25" s="17">
         <f t="shared" si="30"/>
@@ -6777,11 +6850,11 @@
       </c>
       <c r="U25" s="27">
         <f t="shared" si="32"/>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V25" s="27">
         <f t="shared" si="33"/>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -227,9 +227,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -298,15 +298,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,22 +326,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,22 +345,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,19 +375,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,23 +411,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,19 +449,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,13 +485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,25 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,31 +533,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,25 +587,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,25 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,37 +734,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,17 +777,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,142 +817,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5275,7 +5275,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Z2"/>
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -6175,49 +6175,53 @@
       <c r="H16" s="17">
         <v>12</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="I16" s="17">
+        <v>12</v>
+      </c>
+      <c r="J16" s="17">
+        <v>12</v>
+      </c>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="13">
         <f t="shared" ref="O16:O19" si="14">E16+G16+I16+K16+M16</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="27">
         <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="R16" s="27">
         <f t="shared" ref="R16:R19" si="17">P16/D16</f>
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="S16" s="13">
         <f t="shared" ref="S16:S19" si="18">C16-O16</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T16" s="13">
         <f t="shared" ref="T16:T19" si="19">D16-P16</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U16" s="27">
         <f t="shared" ref="U16:U19" si="20">S16/C16</f>
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="V16" s="27">
         <f t="shared" ref="V16:V19" si="21">T16/D16</f>
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="31">
         <f t="shared" ref="Y16:Y19" si="22">S16+T16-W16-X16</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="17">
         <v>3</v>
@@ -6251,43 +6255,47 @@
       <c r="H17" s="17">
         <v>12</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="I17" s="17">
+        <v>12</v>
+      </c>
+      <c r="J17" s="17">
+        <v>12</v>
+      </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="P17" s="17">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="28">
         <f t="shared" si="16"/>
-        <v>0.583333333333333</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="R17" s="28">
         <f t="shared" si="17"/>
-        <v>0.555555555555556</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="S17" s="17">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T17" s="17">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="U17" s="27">
         <f t="shared" si="20"/>
-        <v>0.416666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V17" s="27">
         <f t="shared" si="21"/>
-        <v>0.444444444444444</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="W17" s="17">
         <v>7</v>
@@ -6295,10 +6303,10 @@
       <c r="X17" s="17"/>
       <c r="Y17" s="31">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -6329,49 +6337,53 @@
       <c r="H18" s="17">
         <v>12</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="17">
+        <v>12</v>
+      </c>
+      <c r="J18" s="17">
+        <v>12</v>
+      </c>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P18" s="17">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="28">
         <f t="shared" si="16"/>
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="R18" s="28">
         <f t="shared" si="17"/>
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="S18" s="17">
         <f t="shared" si="18"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T18" s="17">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U18" s="27">
         <f t="shared" si="20"/>
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="V18" s="27">
         <f t="shared" si="21"/>
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
       <c r="Y18" s="31">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="17">
         <v>1</v>
@@ -6405,43 +6417,47 @@
       <c r="H19" s="17">
         <v>12</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="I19" s="17">
+        <v>12</v>
+      </c>
+      <c r="J19" s="17">
+        <v>12</v>
+      </c>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="P19" s="17">
         <f t="shared" si="15"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="28">
         <f t="shared" si="16"/>
-        <v>0.583333333333333</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="R19" s="28">
         <f t="shared" si="17"/>
-        <v>0.611111111111111</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="S19" s="17">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T19" s="17">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U19" s="27">
         <f t="shared" si="20"/>
-        <v>0.416666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V19" s="27">
         <f t="shared" si="21"/>
-        <v>0.388888888888889</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="W19" s="17">
         <v>4</v>
@@ -6451,7 +6467,7 @@
       </c>
       <c r="Y19" s="31">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="17">
         <v>3</v>

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -5275,7 +5275,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:26">

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -227,11 +227,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -306,9 +306,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +339,30 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,22 +385,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,9 +399,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,37 +421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,14 +429,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,7 +449,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,61 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,13 +515,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +551,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,43 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,13 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,36 +749,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,17 +778,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,145 +817,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1054,7 +1054,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5275,7 +5275,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -5568,11 +5568,11 @@
       </c>
       <c r="C8" s="13">
         <f>MAX(O8:O14,O16:O19,O21:O25)</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D8" s="13">
         <f>MAX(P8:P14,P16:P19,P21:P25)</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E8" s="9">
         <v>12</v>
@@ -5592,47 +5592,53 @@
       <c r="J8" s="9">
         <v>12</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="9">
+        <v>11</v>
+      </c>
+      <c r="L8" s="9">
+        <v>11</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="13">
         <f t="shared" ref="O8:O14" si="0">E8+G8+I8+K8+M8</f>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" ref="P8:P14" si="1">F8+H8+J8+L8+N8</f>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="27">
         <f t="shared" ref="Q8:Q14" si="2">O8/C8</f>
-        <v>1</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="R8" s="27">
         <f t="shared" ref="R8:R14" si="3">P8/D8</f>
-        <v>1</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="S8" s="13">
         <f t="shared" ref="S8:S14" si="4">C8-O8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="13">
         <f t="shared" ref="T8:T14" si="5">D8-P8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="27">
         <f t="shared" ref="U8:U14" si="6">S8/C8</f>
-        <v>0</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="V8" s="27">
         <f t="shared" ref="V8:V14" si="7">T8/D8</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="9"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1</v>
+      </c>
       <c r="X8" s="9"/>
       <c r="Y8" s="31">
         <f t="shared" ref="Y8:Y14" si="8">S8+T8-W8-X8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="17"/>
     </row>
@@ -5646,11 +5652,11 @@
       </c>
       <c r="C9" s="13">
         <f t="shared" ref="C9:C14" si="10">$C$8</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D9" s="13">
         <f t="shared" ref="D9:D14" si="11">$D$8</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E9" s="9">
         <v>12</v>
@@ -5670,17 +5676,21 @@
       <c r="J9" s="9">
         <v>12</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="K9" s="9">
+        <v>12</v>
+      </c>
+      <c r="L9" s="9">
+        <v>10</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="13">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="27">
         <f t="shared" si="2"/>
@@ -5688,7 +5698,7 @@
       </c>
       <c r="R9" s="27">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="S9" s="13">
         <f t="shared" si="4"/>
@@ -5696,7 +5706,7 @@
       </c>
       <c r="T9" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="27">
         <f t="shared" si="6"/>
@@ -5704,16 +5714,16 @@
       </c>
       <c r="V9" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="31">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -5726,11 +5736,11 @@
       </c>
       <c r="C10" s="13">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E10" s="9">
         <v>12</v>
@@ -5750,47 +5760,51 @@
       <c r="J10" s="9">
         <v>12</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="9">
+        <v>11</v>
+      </c>
+      <c r="L10" s="9">
+        <v>8</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="13">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="27">
         <f t="shared" si="2"/>
-        <v>0.972222222222222</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="R10" s="27">
         <f t="shared" si="3"/>
-        <v>0.916666666666667</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="S10" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" s="13">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U10" s="27">
         <f t="shared" si="6"/>
-        <v>0.0277777777777778</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="V10" s="27">
         <f t="shared" si="7"/>
-        <v>0.0833333333333333</v>
+        <v>0.145833333333333</v>
       </c>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="31">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z10" s="17">
         <v>2</v>
@@ -5806,11 +5820,11 @@
       </c>
       <c r="C11" s="13">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E11" s="9">
         <v>12</v>
@@ -5830,47 +5844,51 @@
       <c r="J11" s="9">
         <v>11</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="9">
+        <v>8</v>
+      </c>
+      <c r="L11" s="9">
+        <v>10</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="13">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="27">
         <f t="shared" si="2"/>
-        <v>0.888888888888889</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="R11" s="27">
         <f t="shared" si="3"/>
-        <v>0.861111111111111</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="S11" s="13">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T11" s="13">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U11" s="27">
         <f t="shared" si="6"/>
-        <v>0.111111111111111</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="V11" s="27">
         <f t="shared" si="7"/>
-        <v>0.138888888888889</v>
+        <v>0.145833333333333</v>
       </c>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="31">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="17">
         <v>3</v>
@@ -5886,11 +5904,11 @@
       </c>
       <c r="C12" s="13">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E12" s="9">
         <v>12</v>
@@ -5910,17 +5928,21 @@
       <c r="J12" s="9">
         <v>12</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="9">
+        <v>12</v>
+      </c>
+      <c r="L12" s="9">
+        <v>11</v>
+      </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="13">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="27">
         <f t="shared" si="2"/>
@@ -5936,7 +5958,7 @@
       </c>
       <c r="T12" s="13">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U12" s="27">
         <f t="shared" si="6"/>
@@ -5950,10 +5972,10 @@
       <c r="X12" s="9"/>
       <c r="Y12" s="31">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z12" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -5966,11 +5988,11 @@
       </c>
       <c r="C13" s="13">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E13" s="9">
         <v>12</v>
@@ -5990,47 +6012,51 @@
       <c r="J13" s="9">
         <v>10</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="9">
+        <v>10</v>
+      </c>
+      <c r="L13" s="9">
+        <v>11</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="13">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="27">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="R13" s="27">
         <f t="shared" si="3"/>
-        <v>0.861111111111111</v>
+        <v>0.875</v>
       </c>
       <c r="S13" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13" s="13">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U13" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="V13" s="27">
         <f t="shared" si="7"/>
-        <v>0.138888888888889</v>
+        <v>0.125</v>
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="31">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z13" s="17">
         <v>4</v>
@@ -6046,11 +6072,11 @@
       </c>
       <c r="C14" s="13">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E14" s="9">
         <v>10</v>
@@ -6070,41 +6096,45 @@
       <c r="J14" s="9">
         <v>12</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="9">
+        <v>11</v>
+      </c>
+      <c r="L14" s="9">
+        <v>9</v>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="13">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="27">
         <f t="shared" si="2"/>
-        <v>0.833333333333333</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="R14" s="27">
         <f t="shared" si="3"/>
-        <v>0.861111111111111</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="S14" s="13">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T14" s="13">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U14" s="27">
         <f t="shared" si="6"/>
-        <v>0.166666666666667</v>
+        <v>0.145833333333333</v>
       </c>
       <c r="V14" s="27">
         <f t="shared" si="7"/>
-        <v>0.138888888888889</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="W14" s="9">
         <v>1</v>
@@ -6112,10 +6142,10 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="31">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Z14" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -6157,11 +6187,11 @@
       </c>
       <c r="C16" s="13">
         <f t="shared" ref="C16:C19" si="12">$C$8</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D16" s="13">
         <f t="shared" ref="D16:D19" si="13">$D$8</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E16" s="17">
         <v>12</v>
@@ -6195,33 +6225,33 @@
       </c>
       <c r="Q16" s="27">
         <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R16" s="27">
         <f t="shared" ref="R16:R19" si="17">P16/D16</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S16" s="13">
         <f t="shared" ref="S16:S19" si="18">C16-O16</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T16" s="13">
         <f t="shared" ref="T16:T19" si="19">D16-P16</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U16" s="27">
         <f t="shared" ref="U16:U19" si="20">S16/C16</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="V16" s="27">
         <f t="shared" ref="V16:V19" si="21">T16/D16</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="31">
         <f t="shared" ref="Y16:Y19" si="22">S16+T16-W16-X16</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z16" s="17">
         <v>3</v>
@@ -6237,11 +6267,11 @@
       </c>
       <c r="C17" s="17">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E17" s="17">
         <v>9</v>
@@ -6261,25 +6291,29 @@
       <c r="J17" s="17">
         <v>12</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="K17" s="17">
+        <v>12</v>
+      </c>
+      <c r="L17" s="17">
+        <v>12</v>
+      </c>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17">
         <f t="shared" si="14"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P17" s="17">
         <f t="shared" si="15"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="28">
         <f t="shared" si="16"/>
-        <v>0.916666666666667</v>
+        <v>0.9375</v>
       </c>
       <c r="R17" s="28">
         <f t="shared" si="17"/>
-        <v>0.888888888888889</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="S17" s="17">
         <f t="shared" si="18"/>
@@ -6291,11 +6325,11 @@
       </c>
       <c r="U17" s="27">
         <f t="shared" si="20"/>
-        <v>0.0833333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="V17" s="27">
         <f t="shared" si="21"/>
-        <v>0.111111111111111</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="W17" s="17">
         <v>7</v>
@@ -6319,11 +6353,11 @@
       </c>
       <c r="C18" s="17">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E18" s="17">
         <v>12</v>
@@ -6343,17 +6377,21 @@
       <c r="J18" s="17">
         <v>12</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="K18" s="17">
+        <v>12</v>
+      </c>
+      <c r="L18" s="17">
+        <v>12</v>
+      </c>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17">
         <f t="shared" si="14"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P18" s="17">
         <f t="shared" si="15"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="28">
         <f t="shared" si="16"/>
@@ -6399,11 +6437,11 @@
       </c>
       <c r="C19" s="17">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D19" s="19">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E19" s="17">
         <v>9</v>
@@ -6437,27 +6475,27 @@
       </c>
       <c r="Q19" s="28">
         <f t="shared" si="16"/>
-        <v>0.916666666666667</v>
+        <v>0.6875</v>
       </c>
       <c r="R19" s="28">
         <f t="shared" si="17"/>
-        <v>0.944444444444444</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="S19" s="17">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="T19" s="17">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="U19" s="27">
         <f t="shared" si="20"/>
-        <v>0.0833333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="V19" s="27">
         <f t="shared" si="21"/>
-        <v>0.0555555555555556</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="W19" s="17">
         <v>4</v>
@@ -6467,7 +6505,7 @@
       </c>
       <c r="Y19" s="31">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z19" s="17">
         <v>3</v>
@@ -6512,11 +6550,11 @@
       </c>
       <c r="C21" s="17">
         <f t="shared" ref="C21:C25" si="24">$C$8</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D21" s="19">
         <f t="shared" ref="D21:D25" si="25">$D$8</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E21" s="17">
         <v>12</v>
@@ -6530,27 +6568,31 @@
       <c r="H21" s="17">
         <v>12</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="17">
+        <v>12</v>
+      </c>
+      <c r="J21" s="17">
+        <v>12</v>
+      </c>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17">
         <f t="shared" ref="O21:O25" si="26">E21+G21+I21+K21+M21</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P21" s="17">
         <f t="shared" ref="P21:P25" si="27">F21+H21+J21+L21+N21</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="28">
         <f t="shared" ref="Q21:Q25" si="28">O21/C21</f>
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="R21" s="28">
         <f t="shared" ref="R21:R25" si="29">P21/D21</f>
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="S21" s="17">
         <f t="shared" ref="S21:S25" si="30">C21-O21</f>
@@ -6562,11 +6604,11 @@
       </c>
       <c r="U21" s="27">
         <f t="shared" ref="U21:U25" si="32">S21/C21</f>
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="V21" s="27">
         <f t="shared" ref="V21:V25" si="33">T21/D21</f>
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
@@ -6575,7 +6617,7 @@
         <v>24</v>
       </c>
       <c r="Z21" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -6588,11 +6630,11 @@
       </c>
       <c r="C22" s="17">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="25"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E22" s="17">
         <v>11</v>
@@ -6606,27 +6648,31 @@
       <c r="H22" s="17">
         <v>12</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="I22" s="17">
+        <v>12</v>
+      </c>
+      <c r="J22" s="17">
+        <v>12</v>
+      </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17">
         <f t="shared" si="26"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="P22" s="17">
         <f t="shared" si="27"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="28">
         <f t="shared" si="28"/>
-        <v>0.611111111111111</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="R22" s="28">
         <f t="shared" si="29"/>
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="S22" s="17">
         <f t="shared" si="30"/>
@@ -6638,11 +6684,11 @@
       </c>
       <c r="U22" s="27">
         <f t="shared" si="32"/>
-        <v>0.388888888888889</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="V22" s="27">
         <f t="shared" si="33"/>
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
@@ -6664,11 +6710,11 @@
       </c>
       <c r="C23" s="17">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="25"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E23" s="17">
         <v>12</v>
@@ -6682,31 +6728,35 @@
       <c r="H23" s="17">
         <v>12</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="I23" s="17">
+        <v>10</v>
+      </c>
+      <c r="J23" s="17">
+        <v>12</v>
+      </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17">
         <f t="shared" si="26"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="P23" s="17">
         <f t="shared" si="27"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="28">
         <f t="shared" si="28"/>
-        <v>0.666666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="R23" s="28">
         <f t="shared" si="29"/>
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="S23" s="17">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T23" s="17">
         <f t="shared" si="31"/>
@@ -6714,17 +6764,17 @@
       </c>
       <c r="U23" s="27">
         <f t="shared" si="32"/>
-        <v>0.333333333333333</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="V23" s="27">
         <f t="shared" si="33"/>
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
       <c r="Y23" s="31">
         <f t="shared" si="34"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z23" s="17">
         <v>2</v>
@@ -6740,11 +6790,11 @@
       </c>
       <c r="C24" s="17">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="25"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E24" s="17">
         <v>12</v>
@@ -6758,19 +6808,23 @@
       <c r="H24" s="17">
         <v>12</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="I24" s="17">
+        <v>8</v>
+      </c>
+      <c r="J24" s="17">
+        <v>8</v>
+      </c>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17">
         <f t="shared" si="26"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P24" s="17">
         <f t="shared" si="27"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="28">
         <f t="shared" si="28"/>
@@ -6782,11 +6836,11 @@
       </c>
       <c r="S24" s="17">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T24" s="17">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="U24" s="27">
         <f t="shared" si="32"/>
@@ -6800,7 +6854,7 @@
       <c r="X24" s="17"/>
       <c r="Y24" s="31">
         <f t="shared" si="34"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Z24" s="17">
         <v>1</v>
@@ -6816,11 +6870,11 @@
       </c>
       <c r="C25" s="17">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="25"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E25" s="17">
         <v>12</v>
@@ -6834,27 +6888,31 @@
       <c r="H25" s="17">
         <v>12</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="I25" s="17">
+        <v>12</v>
+      </c>
+      <c r="J25" s="17">
+        <v>12</v>
+      </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17">
         <f t="shared" si="26"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P25" s="17">
         <f t="shared" si="27"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="28">
         <f t="shared" si="28"/>
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="R25" s="28">
         <f t="shared" si="29"/>
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="S25" s="17">
         <f t="shared" si="30"/>
@@ -6866,11 +6924,11 @@
       </c>
       <c r="U25" s="27">
         <f t="shared" si="32"/>
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="V25" s="27">
         <f t="shared" si="33"/>
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -228,10 +228,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -291,14 +291,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -306,27 +298,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,6 +334,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -354,30 +367,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,29 +382,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,8 +403,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,19 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +473,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,37 +587,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,103 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,6 +715,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -734,57 +758,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,9 +780,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,148 +817,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5275,7 +5275,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -6211,47 +6211,51 @@
       <c r="J16" s="17">
         <v>12</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="K16" s="17">
+        <v>12</v>
+      </c>
+      <c r="L16" s="17">
+        <v>12</v>
+      </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="13">
         <f t="shared" ref="O16:O19" si="14">E16+G16+I16+K16+M16</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="27">
         <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R16" s="27">
         <f t="shared" ref="R16:R19" si="17">P16/D16</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S16" s="13">
         <f t="shared" ref="S16:S19" si="18">C16-O16</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T16" s="13">
         <f t="shared" ref="T16:T19" si="19">D16-P16</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U16" s="27">
         <f t="shared" ref="U16:U19" si="20">S16/C16</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V16" s="27">
         <f t="shared" ref="V16:V19" si="21">T16/D16</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="31">
         <f t="shared" ref="Y16:Y19" si="22">S16+T16-W16-X16</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="17">
         <v>3</v>
@@ -6461,41 +6465,45 @@
       <c r="J19" s="17">
         <v>12</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="K19" s="17">
+        <v>12</v>
+      </c>
+      <c r="L19" s="17">
+        <v>12</v>
+      </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17">
         <f t="shared" si="14"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P19" s="17">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="28">
         <f t="shared" si="16"/>
-        <v>0.6875</v>
+        <v>0.9375</v>
       </c>
       <c r="R19" s="28">
         <f t="shared" si="17"/>
-        <v>0.708333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="S19" s="17">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T19" s="17">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U19" s="27">
         <f t="shared" si="20"/>
-        <v>0.3125</v>
+        <v>0.0625</v>
       </c>
       <c r="V19" s="27">
         <f t="shared" si="21"/>
-        <v>0.291666666666667</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="W19" s="17">
         <v>4</v>
@@ -6505,10 +6513,10 @@
       </c>
       <c r="Y19" s="31">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -6574,47 +6582,51 @@
       <c r="J21" s="17">
         <v>12</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="K21" s="17">
+        <v>12</v>
+      </c>
+      <c r="L21" s="17">
+        <v>12</v>
+      </c>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17">
         <f t="shared" ref="O21:O25" si="26">E21+G21+I21+K21+M21</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P21" s="17">
         <f t="shared" ref="P21:P25" si="27">F21+H21+J21+L21+N21</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="28">
         <f t="shared" ref="Q21:Q25" si="28">O21/C21</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R21" s="28">
         <f t="shared" ref="R21:R25" si="29">P21/D21</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S21" s="17">
         <f t="shared" ref="S21:S25" si="30">C21-O21</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T21" s="17">
         <f t="shared" ref="T21:T25" si="31">D21-P21</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U21" s="27">
         <f t="shared" ref="U21:U25" si="32">S21/C21</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V21" s="27">
         <f t="shared" ref="V21:V25" si="33">T21/D21</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
       <c r="Y21" s="31">
         <f t="shared" ref="Y21:Y25" si="34">S21+T21-W21-X21</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="17">
         <v>2</v>
@@ -6654,47 +6666,51 @@
       <c r="J22" s="17">
         <v>12</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
+      <c r="K22" s="17">
+        <v>12</v>
+      </c>
+      <c r="L22" s="17">
+        <v>11</v>
+      </c>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17">
         <f t="shared" si="26"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P22" s="17">
         <f t="shared" si="27"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="28">
         <f t="shared" si="28"/>
-        <v>0.708333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="R22" s="28">
         <f t="shared" si="29"/>
-        <v>0.75</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="S22" s="17">
         <f t="shared" si="30"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T22" s="17">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U22" s="27">
         <f t="shared" si="32"/>
-        <v>0.291666666666667</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="V22" s="27">
         <f t="shared" si="33"/>
-        <v>0.25</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="31">
         <f t="shared" si="34"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="17">
         <v>5</v>
@@ -6734,47 +6750,51 @@
       <c r="J23" s="17">
         <v>12</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="K23" s="17">
+        <v>12</v>
+      </c>
+      <c r="L23" s="17">
+        <v>12</v>
+      </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17">
         <f t="shared" si="26"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P23" s="17">
         <f t="shared" si="27"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="28">
         <f t="shared" si="28"/>
-        <v>0.708333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="R23" s="28">
         <f t="shared" si="29"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S23" s="17">
         <f t="shared" si="30"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T23" s="17">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U23" s="27">
         <f t="shared" si="32"/>
-        <v>0.291666666666667</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="V23" s="27">
         <f t="shared" si="33"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
       <c r="Y23" s="31">
         <f t="shared" si="34"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Z23" s="17">
         <v>2</v>
@@ -6814,47 +6834,51 @@
       <c r="J24" s="17">
         <v>8</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="K24" s="17">
+        <v>12</v>
+      </c>
+      <c r="L24" s="17">
+        <v>12</v>
+      </c>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17">
         <f t="shared" si="26"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P24" s="17">
         <f t="shared" si="27"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="28">
         <f t="shared" si="28"/>
-        <v>0.666666666666667</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="R24" s="28">
         <f t="shared" si="29"/>
-        <v>0.666666666666667</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="S24" s="17">
         <f t="shared" si="30"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="T24" s="17">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="U24" s="27">
         <f t="shared" si="32"/>
-        <v>0.333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V24" s="27">
         <f t="shared" si="33"/>
-        <v>0.333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
       <c r="Y24" s="31">
         <f t="shared" si="34"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Z24" s="17">
         <v>1</v>
@@ -6894,47 +6918,51 @@
       <c r="J25" s="17">
         <v>12</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="K25" s="17">
+        <v>12</v>
+      </c>
+      <c r="L25" s="17">
+        <v>12</v>
+      </c>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17">
         <f t="shared" si="26"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P25" s="17">
         <f t="shared" si="27"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="28">
         <f t="shared" si="28"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R25" s="28">
         <f t="shared" si="29"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S25" s="17">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T25" s="17">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U25" s="27">
         <f t="shared" si="32"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V25" s="27">
         <f t="shared" si="33"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="31">
         <f t="shared" si="34"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="17">
         <v>2</v>

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>5, 6</t>
   </si>
   <si>
     <t>Nadyne Fathiya Chairinda</t>
@@ -243,9 +246,6 @@
   <si>
     <t>23 - 28</t>
   </si>
-  <si>
-    <t>30</t>
-  </si>
 </sst>
 </file>
 
@@ -254,8 +254,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
@@ -315,105 +315,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,6 +347,43 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -443,15 +391,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -474,25 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +510,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +564,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,19 +612,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,19 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,61 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,26 +740,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,6 +788,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -803,28 +814,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,148 +842,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,23 +1058,23 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H8:H14"/>
+      <selection activeCell="H8" sqref="H8:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1670,7 +1670,9 @@
       <c r="E9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>5</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
     </row>
@@ -1748,7 +1750,9 @@
       <c r="E13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="17">
+        <v>4</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
@@ -1769,7 +1773,9 @@
       <c r="E14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17">
+        <v>4</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
@@ -1821,7 +1827,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1928,7 +1934,9 @@
       <c r="E8" s="17">
         <v>2</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17">
+        <v>3</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
@@ -1949,7 +1957,9 @@
       <c r="E9" s="17">
         <v>4</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
     </row>
@@ -1959,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17">
@@ -1976,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="17">
         <v>30</v>
@@ -1993,7 +2003,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -2007,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="17">
         <v>30</v>
@@ -2026,13 +2036,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -2045,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="17">
         <v>30</v>
@@ -2064,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -2081,7 +2091,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="17">
         <v>30</v>
@@ -2181,7 +2191,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2211,7 +2221,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2247,11 +2257,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2263,28 +2273,28 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" s="23"/>
       <c r="S4" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" s="22"/>
-      <c r="U4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="24"/>
+      <c r="U4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="27"/>
       <c r="W4" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X4" s="22"/>
       <c r="Y4" s="22"/>
       <c r="Z4" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2293,23 +2303,23 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="22"/>
@@ -2318,86 +2328,86 @@
       <c r="R5" s="23"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
       <c r="Y5" s="22"/>
-      <c r="Z5" s="29"/>
+      <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="F6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="H6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="J6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="L6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="N6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="P6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="T6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="V6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="W6" s="26" t="s">
+      <c r="U6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="X6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="26" t="s">
+      <c r="V6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="29"/>
+      <c r="X6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="28"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="10" t="s">
@@ -2466,11 +2476,11 @@
         <f t="shared" ref="P8:P14" si="1">F8+H8+J8+L8+N8</f>
         <v>6</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="25">
         <f t="shared" ref="Q8:Q14" si="2">O8/C8</f>
         <v>1</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="25">
         <f t="shared" ref="R8:R14" si="3">P8/D8</f>
         <v>1</v>
       </c>
@@ -2482,11 +2492,11 @@
         <f t="shared" ref="T8:T14" si="5">D8-P8</f>
         <v>0</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="25">
         <f t="shared" ref="U8:U14" si="6">S8/C8</f>
         <v>0</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="25">
         <f t="shared" ref="V8:V14" si="7">T8/D8</f>
         <v>0</v>
       </c>
@@ -2533,11 +2543,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2549,11 +2559,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2602,11 +2612,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2618,11 +2628,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2669,11 +2679,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2685,11 +2695,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V11" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2736,11 +2746,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2752,11 +2762,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V12" s="27">
+      <c r="V12" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2803,11 +2813,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2819,11 +2829,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U13" s="27">
+      <c r="U13" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V13" s="27">
+      <c r="V13" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2872,11 +2882,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="25">
         <f t="shared" si="2"/>
         <v>0.916666666666667</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2888,11 +2898,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="25">
         <f t="shared" si="6"/>
         <v>0.0833333333333333</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2972,11 +2982,11 @@
         <f t="shared" ref="P16:P21" si="14">F16+H16+J16+L16+N16</f>
         <v>6</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="25">
         <f t="shared" ref="Q16:Q21" si="15">O16/C16</f>
         <v>0.916666666666667</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="25">
         <f t="shared" ref="R16:R21" si="16">P16/D16</f>
         <v>1</v>
       </c>
@@ -2988,11 +2998,11 @@
         <f t="shared" ref="T16:T21" si="18">D16-P16</f>
         <v>0</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="25">
         <f t="shared" ref="U16:U19" si="19">S16/C16</f>
         <v>0.0833333333333333</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="25">
         <f t="shared" ref="V16:V19" si="20">T16/D16</f>
         <v>0</v>
       </c>
@@ -3043,11 +3053,11 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="26">
         <f t="shared" si="15"/>
         <v>0.916666666666667</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="26">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
@@ -3059,11 +3069,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U17" s="27">
+      <c r="U17" s="25">
         <f t="shared" si="19"/>
         <v>0.0833333333333333</v>
       </c>
-      <c r="V17" s="27">
+      <c r="V17" s="25">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3082,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" si="11"/>
@@ -3114,11 +3124,11 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="26">
         <f t="shared" si="15"/>
         <v>0.916666666666667</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="26">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
@@ -3130,11 +3140,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U18" s="25">
         <f t="shared" si="19"/>
         <v>0.0833333333333333</v>
       </c>
-      <c r="V18" s="27">
+      <c r="V18" s="25">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3151,7 +3161,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="11"/>
@@ -3183,11 +3193,11 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="26">
         <f t="shared" si="15"/>
         <v>0.916666666666667</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="26">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
@@ -3199,11 +3209,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U19" s="27">
+      <c r="U19" s="25">
         <f t="shared" si="19"/>
         <v>0.0833333333333333</v>
       </c>
-      <c r="V19" s="27">
+      <c r="V19" s="25">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3218,7 +3228,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -3251,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" ref="C21:C25" si="22">$C$8</f>
@@ -3283,11 +3293,11 @@
         <f t="shared" ref="P21:P25" si="25">F21+H21+J21+L21+N21</f>
         <v>6</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="26">
         <f t="shared" ref="Q21:Q25" si="26">O21/C21</f>
         <v>1</v>
       </c>
-      <c r="R21" s="28">
+      <c r="R21" s="26">
         <f t="shared" ref="R21:R25" si="27">P21/D21</f>
         <v>1</v>
       </c>
@@ -3299,11 +3309,11 @@
         <f t="shared" ref="T21:T25" si="29">D21-P21</f>
         <v>0</v>
       </c>
-      <c r="U21" s="27">
+      <c r="U21" s="25">
         <f t="shared" ref="U21:U25" si="30">S21/C21</f>
         <v>0</v>
       </c>
-      <c r="V21" s="27">
+      <c r="V21" s="25">
         <f t="shared" ref="V21:V25" si="31">T21/D21</f>
         <v>0</v>
       </c>
@@ -3320,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="22"/>
@@ -3352,11 +3362,11 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="26">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="26">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -3368,11 +3378,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="U22" s="27">
+      <c r="U22" s="25">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V22" s="27">
+      <c r="V22" s="25">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -3389,7 +3399,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="22"/>
@@ -3421,11 +3431,11 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="26">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="26">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -3437,11 +3447,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="U23" s="27">
+      <c r="U23" s="25">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V23" s="27">
+      <c r="V23" s="25">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -3458,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="22"/>
@@ -3486,11 +3496,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="26">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="R24" s="28">
+      <c r="R24" s="26">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3502,11 +3512,11 @@
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="U24" s="27">
+      <c r="U24" s="25">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="V24" s="27">
+      <c r="V24" s="25">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -3523,7 +3533,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="22"/>
@@ -3555,11 +3565,11 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="26">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="R25" s="28">
+      <c r="R25" s="26">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -3571,11 +3581,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="U25" s="27">
+      <c r="U25" s="25">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V25" s="27">
+      <c r="V25" s="25">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -3660,7 +3670,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3690,7 +3700,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3726,11 +3736,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3742,28 +3752,28 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" s="23"/>
       <c r="S4" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" s="22"/>
-      <c r="U4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="24"/>
+      <c r="U4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="27"/>
       <c r="W4" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X4" s="22"/>
       <c r="Y4" s="22"/>
       <c r="Z4" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -3772,23 +3782,23 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="22"/>
@@ -3797,86 +3807,86 @@
       <c r="R5" s="23"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
       <c r="Y5" s="22"/>
-      <c r="Z5" s="29"/>
+      <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="F6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="H6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="J6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="L6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="N6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="P6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="T6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="V6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="W6" s="26" t="s">
+      <c r="U6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="X6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="26" t="s">
+      <c r="V6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="29"/>
+      <c r="X6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="28"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="10" t="s">
@@ -3957,11 +3967,11 @@
         <f t="shared" ref="P8:P14" si="1">F8+H8+J8+L8+N8</f>
         <v>32</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="25">
         <f t="shared" ref="Q8:Q14" si="2">O8/C8</f>
         <v>0.956521739130435</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="25">
         <f t="shared" ref="R8:R14" si="3">P8/D8</f>
         <v>0.96969696969697</v>
       </c>
@@ -3973,11 +3983,11 @@
         <f t="shared" ref="T8:T14" si="5">D8-P8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="25">
         <f t="shared" ref="U8:U14" si="6">S8/C8</f>
         <v>0.0434782608695652</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="25">
         <f t="shared" ref="V8:V14" si="7">T8/D8</f>
         <v>0.0303030303030303</v>
       </c>
@@ -4041,11 +4051,11 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="25">
         <f t="shared" si="2"/>
         <v>0.978260869565217</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -4057,11 +4067,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="25">
         <f t="shared" si="6"/>
         <v>0.0217391304347826</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4127,11 +4137,11 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="25">
         <f t="shared" si="2"/>
         <v>0.978260869565217</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="25">
         <f t="shared" si="3"/>
         <v>0.939393939393939</v>
       </c>
@@ -4143,11 +4153,11 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="25">
         <f t="shared" si="6"/>
         <v>0.0217391304347826</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="25">
         <f t="shared" si="7"/>
         <v>0.0606060606060606</v>
       </c>
@@ -4213,11 +4223,11 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="25">
         <f t="shared" si="2"/>
         <v>0.978260869565217</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="25">
         <f t="shared" si="3"/>
         <v>0.96969696969697</v>
       </c>
@@ -4229,11 +4239,11 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="25">
         <f t="shared" si="6"/>
         <v>0.0217391304347826</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V11" s="25">
         <f t="shared" si="7"/>
         <v>0.0303030303030303</v>
       </c>
@@ -4299,11 +4309,11 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="25">
         <f t="shared" si="2"/>
         <v>0.978260869565217</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="25">
         <f t="shared" si="3"/>
         <v>0.909090909090909</v>
       </c>
@@ -4315,11 +4325,11 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="25">
         <f t="shared" si="6"/>
         <v>0.0217391304347826</v>
       </c>
-      <c r="V12" s="27">
+      <c r="V12" s="25">
         <f t="shared" si="7"/>
         <v>0.0909090909090909</v>
       </c>
@@ -4385,11 +4395,11 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="25">
         <f t="shared" si="2"/>
         <v>0.978260869565217</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="25">
         <f t="shared" si="3"/>
         <v>0.96969696969697</v>
       </c>
@@ -4401,11 +4411,11 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U13" s="27">
+      <c r="U13" s="25">
         <f t="shared" si="6"/>
         <v>0.0217391304347826</v>
       </c>
-      <c r="V13" s="27">
+      <c r="V13" s="25">
         <f t="shared" si="7"/>
         <v>0.0303030303030303</v>
       </c>
@@ -4471,11 +4481,11 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="25">
         <f t="shared" si="2"/>
         <v>0.934782608695652</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="25">
         <f t="shared" si="3"/>
         <v>0.878787878787879</v>
       </c>
@@ -4487,11 +4497,11 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="25">
         <f t="shared" si="6"/>
         <v>0.0652173913043478</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="25">
         <f t="shared" si="7"/>
         <v>0.121212121212121</v>
       </c>
@@ -4586,11 +4596,11 @@
         <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
         <v>33</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="25">
         <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
         <v>1</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="25">
         <f t="shared" ref="R16:R19" si="17">P16/D16</f>
         <v>1</v>
       </c>
@@ -4602,11 +4612,11 @@
         <f t="shared" ref="T16:T19" si="19">D16-P16</f>
         <v>0</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="25">
         <f t="shared" ref="U16:U19" si="20">S16/C16</f>
         <v>0</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="25">
         <f t="shared" ref="V16:V19" si="21">T16/D16</f>
         <v>0</v>
       </c>
@@ -4670,11 +4680,11 @@
         <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="26">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="26">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
@@ -4686,11 +4696,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U17" s="27">
+      <c r="U17" s="25">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V17" s="27">
+      <c r="V17" s="25">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -4710,7 +4720,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" si="12"/>
@@ -4754,11 +4764,11 @@
         <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="26">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="26">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
@@ -4770,11 +4780,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U18" s="25">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V18" s="27">
+      <c r="V18" s="25">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -4794,7 +4804,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="12"/>
@@ -4838,11 +4848,11 @@
         <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="26">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="26">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
@@ -4854,11 +4864,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U19" s="27">
+      <c r="U19" s="25">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V19" s="27">
+      <c r="V19" s="25">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -4874,7 +4884,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -4907,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" ref="C21:C25" si="24">$C$8</f>
@@ -4951,11 +4961,11 @@
         <f t="shared" ref="P21:P25" si="27">F21+H21+J21+L21+N21</f>
         <v>33</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="26">
         <f t="shared" ref="Q21:Q25" si="28">O21/C21</f>
         <v>1</v>
       </c>
-      <c r="R21" s="28">
+      <c r="R21" s="26">
         <f t="shared" ref="R21:R25" si="29">P21/D21</f>
         <v>1</v>
       </c>
@@ -4967,11 +4977,11 @@
         <f t="shared" ref="T21:T25" si="31">D21-P21</f>
         <v>0</v>
       </c>
-      <c r="U21" s="27">
+      <c r="U21" s="25">
         <f t="shared" ref="U21:U25" si="32">S21/C21</f>
         <v>0</v>
       </c>
-      <c r="V21" s="27">
+      <c r="V21" s="25">
         <f t="shared" ref="V21:V25" si="33">T21/D21</f>
         <v>0</v>
       </c>
@@ -4991,7 +5001,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="24"/>
@@ -5035,11 +5045,11 @@
         <f t="shared" si="27"/>
         <v>33</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="26">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="26">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
@@ -5051,11 +5061,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="U22" s="27">
+      <c r="U22" s="25">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="V22" s="27">
+      <c r="V22" s="25">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -5075,7 +5085,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="24"/>
@@ -5119,11 +5129,11 @@
         <f t="shared" si="27"/>
         <v>33</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="26">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="26">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
@@ -5135,11 +5145,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="U23" s="27">
+      <c r="U23" s="25">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="V23" s="27">
+      <c r="V23" s="25">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -5159,7 +5169,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="24"/>
@@ -5189,11 +5199,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="26">
         <f t="shared" si="28"/>
         <v>0.0434782608695652</v>
       </c>
-      <c r="R24" s="28">
+      <c r="R24" s="26">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -5205,11 +5215,11 @@
         <f t="shared" si="31"/>
         <v>33</v>
       </c>
-      <c r="U24" s="27">
+      <c r="U24" s="25">
         <f t="shared" si="32"/>
         <v>0.956521739130435</v>
       </c>
-      <c r="V24" s="27">
+      <c r="V24" s="25">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -5227,7 +5237,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="24"/>
@@ -5271,11 +5281,11 @@
         <f t="shared" si="27"/>
         <v>33</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="26">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="R25" s="28">
+      <c r="R25" s="26">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
@@ -5287,11 +5297,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="U25" s="27">
+      <c r="U25" s="25">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="V25" s="27">
+      <c r="V25" s="25">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -5376,7 +5386,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5406,7 +5416,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5442,11 +5452,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -5458,28 +5468,28 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" s="23"/>
       <c r="S4" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" s="22"/>
-      <c r="U4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="24"/>
+      <c r="U4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="27"/>
       <c r="W4" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X4" s="22"/>
       <c r="Y4" s="22"/>
       <c r="Z4" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -5488,23 +5498,23 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="22"/>
@@ -5513,86 +5523,86 @@
       <c r="R5" s="23"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
       <c r="Y5" s="22"/>
-      <c r="Z5" s="29"/>
+      <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="F6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="H6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="J6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="L6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="N6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="P6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="T6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="X6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="26" t="s">
+      <c r="V6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="29"/>
+      <c r="X6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="28"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="10" t="s">
@@ -5677,11 +5687,11 @@
         <f t="shared" ref="P8:P14" si="1">F8+H8+J8+L8+N8</f>
         <v>54</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="25">
         <f t="shared" ref="Q8:Q14" si="2">O8/C8</f>
         <v>0.982758620689655</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="25">
         <f t="shared" ref="R8:R14" si="3">P8/D8</f>
         <v>0.964285714285714</v>
       </c>
@@ -5693,11 +5703,11 @@
         <f t="shared" ref="T8:T14" si="5">D8-P8</f>
         <v>2</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="25">
         <f t="shared" ref="U8:U14" si="6">S8/C8</f>
         <v>0.0172413793103448</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="25">
         <f t="shared" ref="V8:V14" si="7">T8/D8</f>
         <v>0.0357142857142857</v>
       </c>
@@ -5767,11 +5777,11 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="25">
         <f t="shared" si="3"/>
         <v>0.946428571428571</v>
       </c>
@@ -5783,11 +5793,11 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="25">
         <f t="shared" si="7"/>
         <v>0.0535714285714286</v>
       </c>
@@ -5855,11 +5865,11 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="25">
         <f t="shared" si="2"/>
         <v>0.96551724137931</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="25">
         <f t="shared" si="3"/>
         <v>0.839285714285714</v>
       </c>
@@ -5871,11 +5881,11 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="25">
         <f t="shared" si="6"/>
         <v>0.0344827586206897</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="25">
         <f t="shared" si="7"/>
         <v>0.160714285714286</v>
       </c>
@@ -5943,11 +5953,11 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="25">
         <f t="shared" si="2"/>
         <v>0.862068965517241</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="25">
         <f t="shared" si="3"/>
         <v>0.857142857142857</v>
       </c>
@@ -5959,11 +5969,11 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="25">
         <f t="shared" si="6"/>
         <v>0.137931034482759</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V11" s="25">
         <f t="shared" si="7"/>
         <v>0.142857142857143</v>
       </c>
@@ -6031,11 +6041,11 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="25">
         <f t="shared" si="3"/>
         <v>0.910714285714286</v>
       </c>
@@ -6047,11 +6057,11 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V12" s="27">
+      <c r="V12" s="25">
         <f t="shared" si="7"/>
         <v>0.0892857142857143</v>
       </c>
@@ -6119,11 +6129,11 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="25">
         <f t="shared" si="2"/>
         <v>0.96551724137931</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="25">
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
@@ -6135,11 +6145,11 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="U13" s="27">
+      <c r="U13" s="25">
         <f t="shared" si="6"/>
         <v>0.0344827586206897</v>
       </c>
-      <c r="V13" s="27">
+      <c r="V13" s="25">
         <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
@@ -6207,11 +6217,11 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="25">
         <f t="shared" si="2"/>
         <v>0.879310344827586</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="25">
         <f t="shared" si="3"/>
         <v>0.839285714285714</v>
       </c>
@@ -6223,11 +6233,11 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="25">
         <f t="shared" si="6"/>
         <v>0.120689655172414</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="25">
         <f t="shared" si="7"/>
         <v>0.160714285714286</v>
       </c>
@@ -6326,11 +6336,11 @@
         <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
         <v>56</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="25">
         <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
         <v>1</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="25">
         <f t="shared" ref="R16:R19" si="17">P16/D16</f>
         <v>1</v>
       </c>
@@ -6342,11 +6352,11 @@
         <f t="shared" ref="T16:T19" si="19">D16-P16</f>
         <v>0</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="25">
         <f t="shared" ref="U16:U19" si="20">S16/C16</f>
         <v>0</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="25">
         <f t="shared" ref="V16:V19" si="21">T16/D16</f>
         <v>0</v>
       </c>
@@ -6414,11 +6424,11 @@
         <f t="shared" si="15"/>
         <v>52</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="26">
         <f t="shared" si="16"/>
         <v>0.948275862068966</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="26">
         <f t="shared" si="17"/>
         <v>0.928571428571429</v>
       </c>
@@ -6430,11 +6440,11 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="U17" s="27">
+      <c r="U17" s="25">
         <f t="shared" si="20"/>
         <v>0.0517241379310345</v>
       </c>
-      <c r="V17" s="27">
+      <c r="V17" s="25">
         <f t="shared" si="21"/>
         <v>0.0714285714285714</v>
       </c>
@@ -6456,7 +6466,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" si="12"/>
@@ -6504,11 +6514,11 @@
         <f t="shared" si="15"/>
         <v>55</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="26">
         <f t="shared" si="16"/>
         <v>0.96551724137931</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="26">
         <f t="shared" si="17"/>
         <v>0.982142857142857</v>
       </c>
@@ -6520,11 +6530,11 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U18" s="25">
         <f t="shared" si="20"/>
         <v>0.0344827586206897</v>
       </c>
-      <c r="V18" s="27">
+      <c r="V18" s="25">
         <f t="shared" si="21"/>
         <v>0.0178571428571429</v>
       </c>
@@ -6546,7 +6556,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="12"/>
@@ -6594,11 +6604,11 @@
         <f t="shared" si="15"/>
         <v>54</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="26">
         <f t="shared" si="16"/>
         <v>0.896551724137931</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="26">
         <f t="shared" si="17"/>
         <v>0.964285714285714</v>
       </c>
@@ -6610,11 +6620,11 @@
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="U19" s="27">
+      <c r="U19" s="25">
         <f t="shared" si="20"/>
         <v>0.103448275862069</v>
       </c>
-      <c r="V19" s="27">
+      <c r="V19" s="25">
         <f t="shared" si="21"/>
         <v>0.0357142857142857</v>
       </c>
@@ -6634,7 +6644,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -6667,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" ref="C21:C25" si="24">$C$8</f>
@@ -6715,11 +6725,11 @@
         <f t="shared" ref="P21:P25" si="27">F21+H21+J21+L21+N21</f>
         <v>54</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="26">
         <f t="shared" ref="Q21:Q25" si="28">O21/C21</f>
         <v>0.948275862068966</v>
       </c>
-      <c r="R21" s="28">
+      <c r="R21" s="26">
         <f t="shared" ref="R21:R25" si="29">P21/D21</f>
         <v>0.964285714285714</v>
       </c>
@@ -6731,11 +6741,11 @@
         <f t="shared" ref="T21:T25" si="31">D21-P21</f>
         <v>2</v>
       </c>
-      <c r="U21" s="27">
+      <c r="U21" s="25">
         <f t="shared" ref="U21:U25" si="32">S21/C21</f>
         <v>0.0517241379310345</v>
       </c>
-      <c r="V21" s="27">
+      <c r="V21" s="25">
         <f t="shared" ref="V21:V25" si="33">T21/D21</f>
         <v>0.0357142857142857</v>
       </c>
@@ -6755,7 +6765,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="24"/>
@@ -6803,11 +6813,11 @@
         <f t="shared" si="27"/>
         <v>54</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="26">
         <f t="shared" si="28"/>
         <v>0.931034482758621</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="26">
         <f t="shared" si="29"/>
         <v>0.964285714285714</v>
       </c>
@@ -6819,11 +6829,11 @@
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="U22" s="27">
+      <c r="U22" s="25">
         <f t="shared" si="32"/>
         <v>0.0689655172413793</v>
       </c>
-      <c r="V22" s="27">
+      <c r="V22" s="25">
         <f t="shared" si="33"/>
         <v>0.0357142857142857</v>
       </c>
@@ -6843,7 +6853,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="24"/>
@@ -6891,11 +6901,11 @@
         <f t="shared" si="27"/>
         <v>56</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="26">
         <f t="shared" si="28"/>
         <v>0.96551724137931</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="26">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
@@ -6907,11 +6917,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="U23" s="27">
+      <c r="U23" s="25">
         <f t="shared" si="32"/>
         <v>0.0344827586206897</v>
       </c>
-      <c r="V23" s="27">
+      <c r="V23" s="25">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -6931,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="24"/>
@@ -6979,11 +6989,11 @@
         <f t="shared" si="27"/>
         <v>52</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="26">
         <f t="shared" si="28"/>
         <v>0.931034482758621</v>
       </c>
-      <c r="R24" s="28">
+      <c r="R24" s="26">
         <f t="shared" si="29"/>
         <v>0.928571428571429</v>
       </c>
@@ -6995,11 +7005,11 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="U24" s="27">
+      <c r="U24" s="25">
         <f t="shared" si="32"/>
         <v>0.0689655172413793</v>
       </c>
-      <c r="V24" s="27">
+      <c r="V24" s="25">
         <f t="shared" si="33"/>
         <v>0.0714285714285714</v>
       </c>
@@ -7019,7 +7029,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="24"/>
@@ -7067,11 +7077,11 @@
         <f t="shared" si="27"/>
         <v>54</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="26">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="R25" s="28">
+      <c r="R25" s="26">
         <f t="shared" si="29"/>
         <v>0.964285714285714</v>
       </c>
@@ -7083,11 +7093,11 @@
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="U25" s="27">
+      <c r="U25" s="25">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="V25" s="27">
+      <c r="V25" s="25">
         <f t="shared" si="33"/>
         <v>0.0357142857142857</v>
       </c>
@@ -7135,10 +7145,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -7161,20 +7171,18 @@
     <col min="16" max="16" width="7.57142857142857" style="1" customWidth="1"/>
     <col min="17" max="17" width="5.28571428571429" style="1" customWidth="1"/>
     <col min="18" max="18" width="7.57142857142857" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.28571428571429" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.71428571428571" style="1" customWidth="1"/>
     <col min="20" max="20" width="7.57142857142857" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.71428571428571" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.57142857142857" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.85714285714286" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.57142857142857" style="1" customWidth="1"/>
-    <col min="25" max="25" width="3.42857142857143" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7.71428571428571" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.14285714285714" style="1"/>
+    <col min="21" max="21" width="2.85714285714286" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.57142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3.42857142857143" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.71428571428571" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7199,12 +7207,10 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7229,10 +7235,8 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="4" spans="1:26">
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -7240,11 +7244,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -7253,146 +7257,134 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23" t="s">
+      <c r="M4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="22" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="W4" s="22" t="s">
+      <c r="R4" s="22"/>
+      <c r="S4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22" t="s">
+      <c r="T4" s="27"/>
+      <c r="U4" s="22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
       <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="29"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="X5" s="28"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="F6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="H6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="J6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="L6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="N6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="X6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="26" t="s">
+      <c r="T6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="29"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="V6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="28"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -7418,11 +7410,9 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="30"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="X7" s="30"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -7430,12 +7420,12 @@
         <v>11</v>
       </c>
       <c r="C8" s="13">
-        <f>MAX(O8:O14,O16:O19,O21:O25)</f>
-        <v>24</v>
+        <f>MAX(M8:M14,M16:M19,M21:M25)</f>
+        <v>48</v>
       </c>
       <c r="D8" s="13">
-        <f>MAX(P8:P14,P16:P19,P21:P25)</f>
-        <v>22</v>
+        <f>MAX(N8:N14,N16:N19,N21:N25)</f>
+        <v>44</v>
       </c>
       <c r="E8" s="9">
         <v>12</v>
@@ -7449,57 +7439,63 @@
       <c r="H8" s="9">
         <v>9</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="13">
-        <f t="shared" ref="O8:O14" si="0">E8+G8+I8+K8+M8</f>
-        <v>22</v>
-      </c>
-      <c r="P8" s="13">
-        <f t="shared" ref="P8:P14" si="1">F8+H8+J8+L8+N8</f>
-        <v>20</v>
-      </c>
-      <c r="Q8" s="27">
-        <f t="shared" ref="Q8:Q14" si="2">O8/C8</f>
-        <v>0.916666666666667</v>
-      </c>
-      <c r="R8" s="27">
-        <f t="shared" ref="R8:R14" si="3">P8/D8</f>
-        <v>0.909090909090909</v>
-      </c>
-      <c r="S8" s="13">
-        <f t="shared" ref="S8:S14" si="4">C8-O8</f>
+      <c r="I8" s="9">
+        <v>9</v>
+      </c>
+      <c r="J8" s="9">
+        <v>10</v>
+      </c>
+      <c r="K8" s="9">
+        <v>12</v>
+      </c>
+      <c r="L8" s="9">
+        <v>11</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" ref="M8:M14" si="0">E8+G8+I8+K8</f>
+        <v>43</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" ref="N8:N14" si="1">F8+H8+J8+L8</f>
+        <v>41</v>
+      </c>
+      <c r="O8" s="25">
+        <f t="shared" ref="O8:O14" si="2">M8/C8</f>
+        <v>0.895833333333333</v>
+      </c>
+      <c r="P8" s="25">
+        <f t="shared" ref="P8:P14" si="3">N8/D8</f>
+        <v>0.931818181818182</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" ref="Q8:Q14" si="4">C8-M8</f>
+        <v>5</v>
+      </c>
+      <c r="R8" s="13">
+        <f t="shared" ref="R8:R14" si="5">D8-N8</f>
+        <v>3</v>
+      </c>
+      <c r="S8" s="25">
+        <f t="shared" ref="S8:S14" si="6">Q8/C8</f>
+        <v>0.104166666666667</v>
+      </c>
+      <c r="T8" s="25">
+        <f t="shared" ref="T8:T14" si="7">R8/D8</f>
+        <v>0.0681818181818182</v>
+      </c>
+      <c r="U8" s="9">
         <v>2</v>
       </c>
-      <c r="T8" s="13">
-        <f t="shared" ref="T8:T14" si="5">D8-P8</f>
-        <v>2</v>
-      </c>
-      <c r="U8" s="27">
-        <f t="shared" ref="U8:U14" si="6">S8/C8</f>
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V8" s="27">
-        <f t="shared" ref="V8:V14" si="7">T8/D8</f>
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="W8" s="9">
-        <v>2</v>
-      </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="31">
-        <f t="shared" ref="Y8:Y14" si="8">S8+T8-W8-X8</f>
-        <v>2</v>
-      </c>
-      <c r="Z8" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="V8" s="9"/>
+      <c r="W8" s="31">
+        <f t="shared" ref="W8:W14" si="8">Q8+R8-U8-V8</f>
+        <v>6</v>
+      </c>
+      <c r="X8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="13">
         <f t="shared" ref="A9:A14" si="9">A8+1</f>
         <v>2</v>
@@ -7509,11 +7505,11 @@
       </c>
       <c r="C9" s="13">
         <f t="shared" ref="C9:C14" si="10">$C$8</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D9" s="13">
         <f t="shared" ref="D9:D14" si="11">$D$8</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E9" s="9">
         <v>12</v>
@@ -7527,55 +7523,61 @@
       <c r="H9" s="9">
         <v>11</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="13">
+      <c r="I9" s="9">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9">
+        <v>11</v>
+      </c>
+      <c r="K9" s="9">
+        <v>12</v>
+      </c>
+      <c r="L9" s="9">
+        <v>11</v>
+      </c>
+      <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="P9" s="13">
+        <v>48</v>
+      </c>
+      <c r="N9" s="13">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="Q9" s="27">
+        <v>44</v>
+      </c>
+      <c r="O9" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R9" s="27">
+      <c r="P9" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S9" s="13">
+      <c r="Q9" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T9" s="13">
+      <c r="R9" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="27">
+      <c r="S9" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V9" s="27">
+      <c r="T9" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="31">
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="X9" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="9">
         <f t="shared" si="9"/>
         <v>3</v>
@@ -7585,11 +7587,11 @@
       </c>
       <c r="C10" s="13">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E10" s="9">
         <v>11</v>
@@ -7603,55 +7605,61 @@
       <c r="H10" s="9">
         <v>7</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="13">
+      <c r="I10" s="9">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9">
+        <v>11</v>
+      </c>
+      <c r="K10" s="9">
+        <v>12</v>
+      </c>
+      <c r="L10" s="9">
+        <v>7</v>
+      </c>
+      <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="P10" s="13">
+        <v>47</v>
+      </c>
+      <c r="N10" s="13">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="Q10" s="27">
+        <v>36</v>
+      </c>
+      <c r="O10" s="25">
         <f t="shared" si="2"/>
-        <v>0.958333333333333</v>
-      </c>
-      <c r="R10" s="27">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="P10" s="25">
         <f t="shared" si="3"/>
         <v>0.818181818181818</v>
       </c>
-      <c r="S10" s="13">
+      <c r="Q10" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T10" s="13">
+      <c r="R10" s="13">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="U10" s="27">
+        <v>8</v>
+      </c>
+      <c r="S10" s="25">
         <f t="shared" si="6"/>
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="V10" s="27">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="T10" s="25">
         <f t="shared" si="7"/>
         <v>0.181818181818182</v>
       </c>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="31">
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="31">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="Z10" s="17">
+        <v>9</v>
+      </c>
+      <c r="X10" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:24">
       <c r="A11" s="13">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -7661,11 +7669,11 @@
       </c>
       <c r="C11" s="13">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
@@ -7679,57 +7687,63 @@
       <c r="H11" s="9">
         <v>8</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="13">
+      <c r="I11" s="9">
+        <v>12</v>
+      </c>
+      <c r="J11" s="9">
+        <v>9</v>
+      </c>
+      <c r="K11" s="9">
+        <v>12</v>
+      </c>
+      <c r="L11" s="9">
+        <v>11</v>
+      </c>
+      <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="P11" s="13">
+        <v>35</v>
+      </c>
+      <c r="N11" s="13">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q11" s="27">
+        <v>30</v>
+      </c>
+      <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>0.458333333333333</v>
-      </c>
-      <c r="R11" s="27">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="P11" s="25">
         <f t="shared" si="3"/>
-        <v>0.454545454545455</v>
-      </c>
-      <c r="S11" s="13">
+        <v>0.681818181818182</v>
+      </c>
+      <c r="Q11" s="13">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="T11" s="13">
+      <c r="R11" s="13">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="U11" s="27">
+        <v>14</v>
+      </c>
+      <c r="S11" s="25">
         <f t="shared" si="6"/>
-        <v>0.541666666666667</v>
-      </c>
-      <c r="V11" s="27">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="T11" s="25">
         <f t="shared" si="7"/>
-        <v>0.545454545454545</v>
-      </c>
-      <c r="W11" s="9">
+        <v>0.318181818181818</v>
+      </c>
+      <c r="U11" s="9">
         <v>24</v>
       </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="31">
+      <c r="V11" s="9"/>
+      <c r="W11" s="31">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z11" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="X11" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="9">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -7739,11 +7753,11 @@
       </c>
       <c r="C12" s="13">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E12" s="9">
         <v>11</v>
@@ -7757,55 +7771,61 @@
       <c r="H12" s="9">
         <v>10</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="13">
+      <c r="I12" s="9">
+        <v>11</v>
+      </c>
+      <c r="J12" s="9">
+        <v>10</v>
+      </c>
+      <c r="K12" s="9">
+        <v>10</v>
+      </c>
+      <c r="L12" s="9">
+        <v>10</v>
+      </c>
+      <c r="M12" s="13">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="P12" s="13">
+        <v>43</v>
+      </c>
+      <c r="N12" s="13">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="Q12" s="27">
+        <v>41</v>
+      </c>
+      <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>0.916666666666667</v>
-      </c>
-      <c r="R12" s="27">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="P12" s="25">
         <f t="shared" si="3"/>
-        <v>0.954545454545455</v>
-      </c>
-      <c r="S12" s="13">
+        <v>0.931818181818182</v>
+      </c>
+      <c r="Q12" s="13">
         <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S12" s="25">
+        <f t="shared" si="6"/>
+        <v>0.104166666666667</v>
+      </c>
+      <c r="T12" s="25">
+        <f t="shared" si="7"/>
+        <v>0.0681818181818182</v>
+      </c>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="31">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="X12" s="17">
         <v>2</v>
       </c>
-      <c r="T12" s="13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="27">
-        <f t="shared" si="6"/>
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V12" s="27">
-        <f t="shared" si="7"/>
-        <v>0.0454545454545455</v>
-      </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="31">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="13">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -7815,11 +7835,11 @@
       </c>
       <c r="C13" s="13">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E13" s="9">
         <v>11</v>
@@ -7833,55 +7853,61 @@
       <c r="H13" s="9">
         <v>9</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="13">
+      <c r="I13" s="9">
+        <v>11</v>
+      </c>
+      <c r="J13" s="9">
+        <v>10</v>
+      </c>
+      <c r="K13" s="9">
+        <v>10</v>
+      </c>
+      <c r="L13" s="9">
+        <v>11</v>
+      </c>
+      <c r="M13" s="13">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="P13" s="13">
+        <v>43</v>
+      </c>
+      <c r="N13" s="13">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Q13" s="27">
+        <v>41</v>
+      </c>
+      <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>0.916666666666667</v>
-      </c>
-      <c r="R13" s="27">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="P13" s="25">
         <f t="shared" si="3"/>
-        <v>0.909090909090909</v>
-      </c>
-      <c r="S13" s="13">
+        <v>0.931818181818182</v>
+      </c>
+      <c r="Q13" s="13">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="T13" s="13">
+        <v>5</v>
+      </c>
+      <c r="R13" s="13">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="U13" s="27">
+        <v>3</v>
+      </c>
+      <c r="S13" s="25">
         <f t="shared" si="6"/>
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V13" s="27">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="T13" s="25">
         <f t="shared" si="7"/>
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="31">
+        <v>0.0681818181818182</v>
+      </c>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="31">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="Z13" s="17">
+        <v>8</v>
+      </c>
+      <c r="X13" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:24">
       <c r="A14" s="9">
         <f t="shared" si="9"/>
         <v>7</v>
@@ -7891,11 +7917,11 @@
       </c>
       <c r="C14" s="13">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E14" s="9">
         <v>12</v>
@@ -7909,55 +7935,61 @@
       <c r="H14" s="9">
         <v>10</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="13">
+      <c r="I14" s="9">
+        <v>12</v>
+      </c>
+      <c r="J14" s="9">
+        <v>11</v>
+      </c>
+      <c r="K14" s="9">
+        <v>12</v>
+      </c>
+      <c r="L14" s="9">
+        <v>10</v>
+      </c>
+      <c r="M14" s="13">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="P14" s="13">
+        <v>47</v>
+      </c>
+      <c r="N14" s="13">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="Q14" s="27">
+        <v>42</v>
+      </c>
+      <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>0.958333333333333</v>
-      </c>
-      <c r="R14" s="27">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="P14" s="25">
         <f t="shared" si="3"/>
         <v>0.954545454545455</v>
       </c>
-      <c r="S14" s="13">
+      <c r="Q14" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T14" s="13">
+      <c r="R14" s="13">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="27">
+        <v>2</v>
+      </c>
+      <c r="S14" s="25">
         <f t="shared" si="6"/>
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="V14" s="27">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="T14" s="25">
         <f t="shared" si="7"/>
         <v>0.0454545454545455</v>
       </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="31">
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="31">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>3</v>
+      </c>
+      <c r="X14" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="15" t="s">
         <v>26</v>
       </c>
@@ -7983,11 +8015,9 @@
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="32"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="X15" s="32"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="17">
         <v>1</v>
       </c>
@@ -7996,11 +8026,11 @@
       </c>
       <c r="C16" s="13">
         <f t="shared" ref="C16:C19" si="12">$C$8</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D16" s="13">
         <f t="shared" ref="D16:D19" si="13">$D$8</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E16" s="17">
         <v>12</v>
@@ -8014,57 +8044,63 @@
       <c r="H16" s="17">
         <v>11</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="13">
-        <f t="shared" ref="O16:O19" si="14">E16+G16+I16+K16+M16</f>
-        <v>24</v>
-      </c>
-      <c r="P16" s="13">
-        <f t="shared" ref="P16:P19" si="15">F16+H16+J16+L16+N16</f>
-        <v>22</v>
-      </c>
-      <c r="Q16" s="27">
-        <f t="shared" ref="Q16:Q19" si="16">O16/C16</f>
-        <v>1</v>
-      </c>
-      <c r="R16" s="27">
-        <f t="shared" ref="R16:R19" si="17">P16/D16</f>
-        <v>1</v>
-      </c>
-      <c r="S16" s="13">
-        <f t="shared" ref="S16:S19" si="18">C16-O16</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="13">
-        <f t="shared" ref="T16:T19" si="19">D16-P16</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="27">
-        <f t="shared" ref="U16:U19" si="20">S16/C16</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="27">
-        <f t="shared" ref="V16:V19" si="21">T16/D16</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="31">
-        <f t="shared" ref="Y16:Y19" si="22">S16+T16-W16-X16</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="17">
+      <c r="I16" s="17">
+        <v>12</v>
+      </c>
+      <c r="J16" s="17">
+        <v>11</v>
+      </c>
+      <c r="K16" s="17">
+        <v>12</v>
+      </c>
+      <c r="L16" s="17">
+        <v>11</v>
+      </c>
+      <c r="M16" s="13">
+        <f>E16+G16+I16+K16</f>
+        <v>48</v>
+      </c>
+      <c r="N16" s="13">
+        <f>F16+H16+J16+L16</f>
+        <v>44</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" ref="O16:O19" si="14">M16/C16</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="25">
+        <f t="shared" ref="P16:P19" si="15">N16/D16</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="13">
+        <f t="shared" ref="Q16:Q19" si="16">C16-M16</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="13">
+        <f t="shared" ref="R16:R19" si="17">D16-N16</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="25">
+        <f t="shared" ref="S16:S19" si="18">Q16/C16</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="25">
+        <f t="shared" ref="T16:T19" si="19">R16/D16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="31">
+        <f t="shared" ref="W16:W19" si="20">Q16+R16-U16-V16</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:24">
       <c r="A17" s="17">
-        <f t="shared" ref="A17:A19" si="23">A16+1</f>
+        <f t="shared" ref="A17:A19" si="21">A16+1</f>
         <v>2</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -8072,11 +8108,11 @@
       </c>
       <c r="C17" s="17">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="13"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E17" s="17">
         <v>12</v>
@@ -8090,69 +8126,75 @@
       <c r="H17" s="17">
         <v>11</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17">
+      <c r="I17" s="17">
+        <v>12</v>
+      </c>
+      <c r="J17" s="17">
+        <v>11</v>
+      </c>
+      <c r="K17" s="17">
+        <v>12</v>
+      </c>
+      <c r="L17" s="17">
+        <v>11</v>
+      </c>
+      <c r="M17" s="17">
+        <f>E17+G17+I17+K17</f>
+        <v>48</v>
+      </c>
+      <c r="N17" s="17">
+        <f>F17+H17+J17+L17</f>
+        <v>44</v>
+      </c>
+      <c r="O17" s="26">
         <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="P17" s="17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="26">
         <f t="shared" si="15"/>
-        <v>22</v>
-      </c>
-      <c r="Q17" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="17">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="28">
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S17" s="17">
+        <v>0</v>
+      </c>
+      <c r="S17" s="25">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="25">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U17" s="27">
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="31">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V17" s="27">
+      <c r="X17" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="31">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="17">
-        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="13"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E18" s="17">
         <v>12</v>
@@ -8166,69 +8208,75 @@
       <c r="H18" s="17">
         <v>11</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17">
+      <c r="I18" s="17">
+        <v>12</v>
+      </c>
+      <c r="J18" s="17">
+        <v>10</v>
+      </c>
+      <c r="K18" s="17">
+        <v>12</v>
+      </c>
+      <c r="L18" s="17">
+        <v>10</v>
+      </c>
+      <c r="M18" s="17">
+        <f>E18+G18+I18+K18</f>
+        <v>48</v>
+      </c>
+      <c r="N18" s="17">
+        <f>F18+H18+J18+L18</f>
+        <v>42</v>
+      </c>
+      <c r="O18" s="26">
         <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="P18" s="17">
+        <v>1</v>
+      </c>
+      <c r="P18" s="26">
         <f t="shared" si="15"/>
-        <v>22</v>
-      </c>
-      <c r="Q18" s="28">
+        <v>0.954545454545455</v>
+      </c>
+      <c r="Q18" s="17">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="28">
+        <v>0</v>
+      </c>
+      <c r="R18" s="17">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="17">
+        <v>2</v>
+      </c>
+      <c r="S18" s="25">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T18" s="17">
+      <c r="T18" s="25">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="27">
+        <v>0.0454545454545455</v>
+      </c>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="31">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="27">
+        <v>2</v>
+      </c>
+      <c r="X18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="17">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="31">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="17">
-        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D19" s="19">
         <f t="shared" si="13"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E19" s="17">
         <v>11</v>
@@ -8242,57 +8290,63 @@
       <c r="H19" s="17">
         <v>11</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17">
+      <c r="I19" s="17">
+        <v>12</v>
+      </c>
+      <c r="J19" s="17">
+        <v>11</v>
+      </c>
+      <c r="K19" s="17">
+        <v>12</v>
+      </c>
+      <c r="L19" s="17">
+        <v>11</v>
+      </c>
+      <c r="M19" s="17">
+        <f>E19+G19+I19+K19</f>
+        <v>47</v>
+      </c>
+      <c r="N19" s="17">
+        <f>F19+H19+J19+L19</f>
+        <v>44</v>
+      </c>
+      <c r="O19" s="26">
         <f t="shared" si="14"/>
-        <v>23</v>
-      </c>
-      <c r="P19" s="17">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="P19" s="26">
         <f t="shared" si="15"/>
-        <v>22</v>
-      </c>
-      <c r="Q19" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="17">
         <f t="shared" si="16"/>
-        <v>0.958333333333333</v>
-      </c>
-      <c r="R19" s="28">
+        <v>1</v>
+      </c>
+      <c r="R19" s="17">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="17">
+        <v>0</v>
+      </c>
+      <c r="S19" s="25">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="17">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="T19" s="25">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U19" s="27">
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="31">
         <f t="shared" si="20"/>
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="V19" s="27">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="31">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="Z19" s="17">
+        <v>1</v>
+      </c>
+      <c r="X19" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:24">
       <c r="A20" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -8316,24 +8370,22 @@
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="33"/>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="X20" s="33"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="17">
         <v>1</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17">
-        <f t="shared" ref="C21:C25" si="24">$C$8</f>
-        <v>24</v>
+        <f t="shared" ref="C21:C25" si="22">$C$8</f>
+        <v>48</v>
       </c>
       <c r="D21" s="19">
-        <f t="shared" ref="D21:D25" si="25">$D$8</f>
-        <v>22</v>
+        <f t="shared" ref="D21:D25" si="23">$D$8</f>
+        <v>44</v>
       </c>
       <c r="E21" s="17">
         <v>12</v>
@@ -8347,69 +8399,71 @@
       <c r="H21" s="17">
         <v>11</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="17">
+        <v>12</v>
+      </c>
+      <c r="J21" s="17">
+        <v>11</v>
+      </c>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17">
-        <f t="shared" ref="O21:O25" si="26">E21+G21+I21+K21+M21</f>
-        <v>23</v>
-      </c>
-      <c r="P21" s="17">
-        <f t="shared" ref="P21:P25" si="27">F21+H21+J21+L21+N21</f>
-        <v>21</v>
-      </c>
-      <c r="Q21" s="28">
-        <f t="shared" ref="Q21:Q25" si="28">O21/C21</f>
-        <v>0.958333333333333</v>
-      </c>
-      <c r="R21" s="28">
-        <f t="shared" ref="R21:R25" si="29">P21/D21</f>
-        <v>0.954545454545455</v>
-      </c>
-      <c r="S21" s="17">
-        <f t="shared" ref="S21:S25" si="30">C21-O21</f>
-        <v>1</v>
-      </c>
-      <c r="T21" s="17">
-        <f t="shared" ref="T21:T25" si="31">D21-P21</f>
-        <v>1</v>
-      </c>
-      <c r="U21" s="27">
-        <f t="shared" ref="U21:U25" si="32">S21/C21</f>
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="V21" s="27">
-        <f t="shared" ref="V21:V25" si="33">T21/D21</f>
-        <v>0.0454545454545455</v>
-      </c>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="31">
-        <f t="shared" ref="Y21:Y25" si="34">S21+T21-W21-X21</f>
+      <c r="M21" s="17">
+        <f>E21+G21+I21+K21</f>
+        <v>35</v>
+      </c>
+      <c r="N21" s="17">
+        <f>F21+H21+J21+L21</f>
+        <v>32</v>
+      </c>
+      <c r="O21" s="26">
+        <f t="shared" ref="O21:O25" si="24">M21/C21</f>
+        <v>0.729166666666667</v>
+      </c>
+      <c r="P21" s="26">
+        <f t="shared" ref="P21:P25" si="25">N21/D21</f>
+        <v>0.727272727272727</v>
+      </c>
+      <c r="Q21" s="17">
+        <f t="shared" ref="Q21:Q25" si="26">C21-M21</f>
+        <v>13</v>
+      </c>
+      <c r="R21" s="17">
+        <f t="shared" ref="R21:R25" si="27">D21-N21</f>
+        <v>12</v>
+      </c>
+      <c r="S21" s="25">
+        <f t="shared" ref="S21:S25" si="28">Q21/C21</f>
+        <v>0.270833333333333</v>
+      </c>
+      <c r="T21" s="25">
+        <f t="shared" ref="T21:T25" si="29">R21/D21</f>
+        <v>0.272727272727273</v>
+      </c>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="31">
+        <f t="shared" ref="W21:W25" si="30">Q21+R21-U21-V21</f>
+        <v>25</v>
+      </c>
+      <c r="X21" s="17">
         <v>2</v>
       </c>
-      <c r="Z21" s="17">
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="17">
+        <f t="shared" ref="A22:A25" si="31">A21+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="17">
-        <f t="shared" ref="A22:A25" si="35">A21+1</f>
-        <v>2</v>
-      </c>
       <c r="B22" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17">
-        <f t="shared" si="24"/>
-        <v>24</v>
+        <f t="shared" si="22"/>
+        <v>48</v>
       </c>
       <c r="D22" s="17">
-        <f t="shared" si="25"/>
-        <v>22</v>
+        <f t="shared" si="23"/>
+        <v>44</v>
       </c>
       <c r="E22" s="17">
         <v>12</v>
@@ -8423,69 +8477,71 @@
       <c r="H22" s="17">
         <v>11</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="I22" s="17">
+        <v>12</v>
+      </c>
+      <c r="J22" s="17">
+        <v>11</v>
+      </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17">
+      <c r="M22" s="17">
+        <f>E22+G22+I22+K22</f>
+        <v>36</v>
+      </c>
+      <c r="N22" s="17">
+        <f>F22+H22+J22+L22</f>
+        <v>33</v>
+      </c>
+      <c r="O22" s="26">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="P22" s="26">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q22" s="17">
         <f t="shared" si="26"/>
-        <v>24</v>
-      </c>
-      <c r="P22" s="17">
+        <v>12</v>
+      </c>
+      <c r="R22" s="17">
         <f t="shared" si="27"/>
-        <v>22</v>
-      </c>
-      <c r="Q22" s="28">
+        <v>11</v>
+      </c>
+      <c r="S22" s="25">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="R22" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="T22" s="25">
         <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="31">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="17">
+        <v>23</v>
+      </c>
+      <c r="X22" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="17">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="27">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="27">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="31">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="17">
-        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="17">
-        <f t="shared" si="24"/>
-        <v>24</v>
+        <f t="shared" si="22"/>
+        <v>48</v>
       </c>
       <c r="D23" s="17">
-        <f t="shared" si="25"/>
-        <v>22</v>
+        <f t="shared" si="23"/>
+        <v>44</v>
       </c>
       <c r="E23" s="17">
         <v>6</v>
@@ -8499,71 +8555,73 @@
       <c r="H23" s="17">
         <v>10</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="I23" s="17">
+        <v>12</v>
+      </c>
+      <c r="J23" s="17">
+        <v>11</v>
+      </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17">
+      <c r="M23" s="17">
+        <f>E23+G23+I23+K23</f>
+        <v>30</v>
+      </c>
+      <c r="N23" s="17">
+        <f>F23+H23+J23+L23</f>
+        <v>24</v>
+      </c>
+      <c r="O23" s="26">
+        <f t="shared" si="24"/>
+        <v>0.625</v>
+      </c>
+      <c r="P23" s="26">
+        <f t="shared" si="25"/>
+        <v>0.545454545454545</v>
+      </c>
+      <c r="Q23" s="17">
         <f t="shared" si="26"/>
         <v>18</v>
       </c>
-      <c r="P23" s="17">
+      <c r="R23" s="17">
         <f t="shared" si="27"/>
-        <v>13</v>
-      </c>
-      <c r="Q23" s="28">
+        <v>20</v>
+      </c>
+      <c r="S23" s="25">
         <f t="shared" si="28"/>
-        <v>0.75</v>
-      </c>
-      <c r="R23" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="T23" s="25">
         <f t="shared" si="29"/>
-        <v>0.590909090909091</v>
-      </c>
-      <c r="S23" s="17">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17">
+        <v>12</v>
+      </c>
+      <c r="W23" s="31">
         <f t="shared" si="30"/>
-        <v>6</v>
-      </c>
-      <c r="T23" s="17">
+        <v>26</v>
+      </c>
+      <c r="X23" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="17">
         <f t="shared" si="31"/>
-        <v>9</v>
-      </c>
-      <c r="U23" s="27">
-        <f t="shared" si="32"/>
-        <v>0.25</v>
-      </c>
-      <c r="V23" s="27">
-        <f t="shared" si="33"/>
-        <v>0.409090909090909</v>
-      </c>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17">
-        <v>12</v>
-      </c>
-      <c r="Y23" s="31">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="Z23" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="17">
-        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="17">
-        <f t="shared" si="24"/>
-        <v>24</v>
+        <f t="shared" si="22"/>
+        <v>48</v>
       </c>
       <c r="D24" s="17">
-        <f t="shared" si="25"/>
-        <v>22</v>
+        <f t="shared" si="23"/>
+        <v>44</v>
       </c>
       <c r="E24" s="17">
         <v>10</v>
@@ -8577,69 +8635,71 @@
       <c r="H24" s="17">
         <v>10</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="I24" s="17">
+        <v>10</v>
+      </c>
+      <c r="J24" s="17">
+        <v>8</v>
+      </c>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17">
+      <c r="M24" s="17">
+        <f>E24+G24+I24+K24</f>
+        <v>29</v>
+      </c>
+      <c r="N24" s="17">
+        <f>F24+H24+J24+L24</f>
+        <v>29</v>
+      </c>
+      <c r="O24" s="26">
+        <f t="shared" si="24"/>
+        <v>0.604166666666667</v>
+      </c>
+      <c r="P24" s="26">
+        <f t="shared" si="25"/>
+        <v>0.659090909090909</v>
+      </c>
+      <c r="Q24" s="17">
         <f t="shared" si="26"/>
         <v>19</v>
       </c>
-      <c r="P24" s="17">
+      <c r="R24" s="17">
         <f t="shared" si="27"/>
-        <v>21</v>
-      </c>
-      <c r="Q24" s="28">
+        <v>15</v>
+      </c>
+      <c r="S24" s="25">
         <f t="shared" si="28"/>
-        <v>0.791666666666667</v>
-      </c>
-      <c r="R24" s="28">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="T24" s="25">
         <f t="shared" si="29"/>
-        <v>0.954545454545455</v>
-      </c>
-      <c r="S24" s="17">
+        <v>0.340909090909091</v>
+      </c>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="31">
         <f t="shared" si="30"/>
+        <v>34</v>
+      </c>
+      <c r="X24" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="17">
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="T24" s="17">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="U24" s="27">
-        <f t="shared" si="32"/>
-        <v>0.208333333333333</v>
-      </c>
-      <c r="V24" s="27">
-        <f t="shared" si="33"/>
-        <v>0.0454545454545455</v>
-      </c>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="31">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="Z24" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="17">
-        <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
       <c r="B25" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="17">
-        <f t="shared" si="24"/>
-        <v>24</v>
+        <f t="shared" si="22"/>
+        <v>48</v>
       </c>
       <c r="D25" s="17">
-        <f t="shared" si="25"/>
-        <v>22</v>
+        <f t="shared" si="23"/>
+        <v>44</v>
       </c>
       <c r="E25" s="17">
         <v>12</v>
@@ -8653,76 +8713,77 @@
       <c r="H25" s="17">
         <v>11</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="I25" s="17">
+        <v>12</v>
+      </c>
+      <c r="J25" s="17">
+        <v>11</v>
+      </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17">
+      <c r="M25" s="17">
+        <f>E25+G25+I25+K25</f>
+        <v>36</v>
+      </c>
+      <c r="N25" s="17">
+        <f>F25+H25+J25+L25</f>
+        <v>33</v>
+      </c>
+      <c r="O25" s="26">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="P25" s="26">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q25" s="17">
         <f t="shared" si="26"/>
-        <v>24</v>
-      </c>
-      <c r="P25" s="17">
+        <v>12</v>
+      </c>
+      <c r="R25" s="17">
         <f t="shared" si="27"/>
-        <v>22</v>
-      </c>
-      <c r="Q25" s="28">
+        <v>11</v>
+      </c>
+      <c r="S25" s="25">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="R25" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="T25" s="25">
         <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="31">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="17">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="27">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="27">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="31">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="17">
+        <v>23</v>
+      </c>
+      <c r="X25" s="17">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:Z2"/>
-    <mergeCell ref="E4:N4"/>
+  <mergeCells count="19">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="E4:L4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A7:Z7"/>
-    <mergeCell ref="A15:Z15"/>
-    <mergeCell ref="A20:Z20"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A15:X15"/>
+    <mergeCell ref="A20:X20"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="X4:X6"/>
     <mergeCell ref="C4:D5"/>
+    <mergeCell ref="M4:N5"/>
     <mergeCell ref="O4:P5"/>
     <mergeCell ref="Q4:R5"/>
     <mergeCell ref="S4:T5"/>
-    <mergeCell ref="U4:V5"/>
-    <mergeCell ref="W4:Y5"/>
+    <mergeCell ref="U4:W5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2020.xlsx
+++ b/2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20895" windowHeight="11850" activeTab="1"/>
+    <workbookView windowWidth="20895" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="juziyah putra" sheetId="1" r:id="rId1"/>
@@ -1552,8 +1552,8 @@
   <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L8:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1663,7 +1663,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="13">
         <f t="shared" ref="A9:A14" si="0">A8+1</f>
         <v>2</v>
@@ -1685,8 +1685,11 @@
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1704,8 +1707,11 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1723,8 +1729,11 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1742,8 +1751,11 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1765,6 +1777,9 @@
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9">
@@ -1836,8 +1851,8 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M8:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1933,7 +1948,7 @@
       <c r="F7" s="42"/>
       <c r="G7" s="43"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="17">
         <v>1</v>
       </c>
@@ -1952,6 +1967,9 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="17">
@@ -1993,7 +2011,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2013,6 +2031,9 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="20" t="s">
@@ -2043,7 +2064,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="17">
         <f t="shared" ref="A14:A17" si="1">A13+1</f>
         <v>2</v>
@@ -2061,6 +2082,9 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="17">
